--- a/Code/Results/Cases/Case_6_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.55993819104923</v>
+        <v>14.73977855033865</v>
       </c>
       <c r="C2">
-        <v>9.758572898485095</v>
+        <v>4.979090324158706</v>
       </c>
       <c r="D2">
-        <v>5.899005851427773</v>
+        <v>5.946634274053439</v>
       </c>
       <c r="E2">
-        <v>5.409432305930916</v>
+        <v>5.543910652472682</v>
       </c>
       <c r="F2">
-        <v>67.81861007548432</v>
+        <v>69.99997475314434</v>
       </c>
       <c r="G2">
-        <v>2.164401966764452</v>
+        <v>2.204795613031072</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.053591374987088</v>
+        <v>7.613746810632517</v>
       </c>
       <c r="K2">
-        <v>16.22851833315077</v>
+        <v>11.4755787941221</v>
       </c>
       <c r="L2">
-        <v>6.140439399647074</v>
+        <v>5.577499336827699</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54497825506948</v>
+        <v>14.20593490434878</v>
       </c>
       <c r="C3">
-        <v>9.017479164480534</v>
+        <v>4.648790208896861</v>
       </c>
       <c r="D3">
-        <v>5.608856074620252</v>
+        <v>5.689388584349653</v>
       </c>
       <c r="E3">
-        <v>5.452891071072774</v>
+        <v>5.595641800416867</v>
       </c>
       <c r="F3">
-        <v>64.87902354326643</v>
+        <v>67.20514658578084</v>
       </c>
       <c r="G3">
-        <v>2.17818724780803</v>
+        <v>2.215733762459319</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.016440227882076</v>
+        <v>7.551824230532532</v>
       </c>
       <c r="K3">
-        <v>15.44456969125054</v>
+        <v>11.11576712905101</v>
       </c>
       <c r="L3">
-        <v>6.137425834011446</v>
+        <v>5.61908123908086</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.92241213026547</v>
+        <v>13.88572779375094</v>
       </c>
       <c r="C4">
-        <v>8.542978183093574</v>
+        <v>4.437813406891027</v>
       </c>
       <c r="D4">
-        <v>5.426579509740627</v>
+        <v>5.526881057324944</v>
       </c>
       <c r="E4">
-        <v>5.480753596240872</v>
+        <v>5.629825899379721</v>
       </c>
       <c r="F4">
-        <v>63.0539727986986</v>
+        <v>65.45967664495602</v>
       </c>
       <c r="G4">
-        <v>2.186801368155857</v>
+        <v>2.222598915514387</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.995132734198462</v>
+        <v>7.515032132149538</v>
       </c>
       <c r="K4">
-        <v>14.96557303054732</v>
+        <v>10.90332373904729</v>
       </c>
       <c r="L4">
-        <v>6.141177274114542</v>
+        <v>5.649044712174224</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66912535266703</v>
+        <v>13.75729055360535</v>
       </c>
       <c r="C5">
-        <v>8.344571266365961</v>
+        <v>4.349737232337465</v>
       </c>
       <c r="D5">
-        <v>5.351268799797628</v>
+        <v>5.459517832574545</v>
       </c>
       <c r="E5">
-        <v>5.492409488150275</v>
+        <v>5.644359344535379</v>
       </c>
       <c r="F5">
-        <v>62.30553150420553</v>
+        <v>64.74145822362991</v>
       </c>
       <c r="G5">
-        <v>2.190353866689001</v>
+        <v>2.225436633947389</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.986805936998695</v>
+        <v>7.500335592059268</v>
       </c>
       <c r="K5">
-        <v>14.77116418619375</v>
+        <v>10.81895134307705</v>
       </c>
       <c r="L5">
-        <v>6.144057675017597</v>
+        <v>5.662330562872239</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.62710106313592</v>
+        <v>13.73609190145839</v>
       </c>
       <c r="C6">
-        <v>8.311317242085309</v>
+        <v>4.334984105229744</v>
       </c>
       <c r="D6">
-        <v>5.338701617647866</v>
+        <v>5.448263680389939</v>
       </c>
       <c r="E6">
-        <v>5.494363311408558</v>
+        <v>5.646808887366934</v>
       </c>
       <c r="F6">
-        <v>62.18098108697097</v>
+        <v>64.62179620249314</v>
       </c>
       <c r="G6">
-        <v>2.190946426720763</v>
+        <v>2.225910330650987</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.985444183401896</v>
+        <v>7.497912804845089</v>
       </c>
       <c r="K6">
-        <v>14.73893686713279</v>
+        <v>10.80507623028538</v>
       </c>
       <c r="L6">
-        <v>6.144615987637471</v>
+        <v>5.664600535712415</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91899415194428</v>
+        <v>13.88398714470689</v>
       </c>
       <c r="C7">
-        <v>8.540323006690679</v>
+        <v>4.436634145848794</v>
       </c>
       <c r="D7">
-        <v>5.42556800332502</v>
+        <v>5.525977176204673</v>
       </c>
       <c r="E7">
-        <v>5.480909563324619</v>
+        <v>5.630019467367905</v>
       </c>
       <c r="F7">
-        <v>63.04389760830242</v>
+        <v>65.45001783737357</v>
       </c>
       <c r="G7">
-        <v>2.186849102009131</v>
+        <v>2.222637020235177</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.995019021617265</v>
+        <v>7.514832744624672</v>
       </c>
       <c r="K7">
-        <v>14.96294768814246</v>
+        <v>10.90217686582523</v>
       </c>
       <c r="L7">
-        <v>6.141210720610121</v>
+        <v>5.64921958474701</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.2099836191833</v>
+        <v>14.554219734973</v>
       </c>
       <c r="C8">
-        <v>9.506989446626251</v>
+        <v>4.866868356281786</v>
       </c>
       <c r="D8">
-        <v>5.799817071173441</v>
+        <v>5.858883083654296</v>
       </c>
       <c r="E8">
-        <v>5.424175533052451</v>
+        <v>5.561241510933098</v>
       </c>
       <c r="F8">
-        <v>66.80938180552843</v>
+        <v>69.04268055692854</v>
       </c>
       <c r="G8">
-        <v>2.169126854917638</v>
+        <v>2.208537789031929</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.040455878570251</v>
+        <v>7.592133159948779</v>
       </c>
       <c r="K8">
-        <v>15.95782588913544</v>
+        <v>11.34979437502156</v>
       </c>
       <c r="L8">
-        <v>6.138202483330168</v>
+        <v>5.590892620648095</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.7391080900957</v>
+        <v>15.92319093259104</v>
       </c>
       <c r="C9">
-        <v>11.25578053830383</v>
+        <v>5.648228719476267</v>
       </c>
       <c r="D9">
-        <v>6.501517926643363</v>
+        <v>6.475714370479009</v>
       </c>
       <c r="E9">
-        <v>5.322018078919693</v>
+        <v>5.445863647826428</v>
       </c>
       <c r="F9">
-        <v>74.02663389121484</v>
+        <v>75.8390923182679</v>
       </c>
       <c r="G9">
-        <v>2.135335087466676</v>
+        <v>2.181941944304872</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.142580902527278</v>
+        <v>7.754083646855959</v>
       </c>
       <c r="K9">
-        <v>17.92180229879303</v>
+        <v>12.29226554991473</v>
       </c>
       <c r="L9">
-        <v>6.179480914002312</v>
+        <v>5.513579030691365</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.59195176052792</v>
+        <v>16.95682458690876</v>
       </c>
       <c r="C10">
-        <v>12.4633117650265</v>
+        <v>6.18839833110211</v>
       </c>
       <c r="D10">
-        <v>6.999312933924108</v>
+        <v>6.907831811452324</v>
       </c>
       <c r="E10">
-        <v>5.252130074368012</v>
+        <v>5.373434897490495</v>
       </c>
       <c r="F10">
-        <v>79.23095953735888</v>
+        <v>80.66894531788493</v>
       </c>
       <c r="G10">
-        <v>2.110729495978337</v>
+        <v>2.162841840391616</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.227276041980243</v>
+        <v>7.8803504851528</v>
       </c>
       <c r="K10">
-        <v>19.63451797763554</v>
+        <v>13.02159114051848</v>
       </c>
       <c r="L10">
-        <v>6.242667014784894</v>
+        <v>5.482245689952419</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.43482511452366</v>
+        <v>17.43258180645407</v>
       </c>
       <c r="C11">
-        <v>12.99912650081087</v>
+        <v>6.427867596272307</v>
       </c>
       <c r="D11">
-        <v>7.22268600932022</v>
+        <v>7.100212494194087</v>
       </c>
       <c r="E11">
-        <v>5.221366828241498</v>
+        <v>5.343284273480352</v>
       </c>
       <c r="F11">
-        <v>81.58204658893582</v>
+        <v>82.83068583392796</v>
       </c>
       <c r="G11">
-        <v>2.099486089613631</v>
+        <v>2.154196735523982</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.268357862981977</v>
+        <v>7.939621768106214</v>
       </c>
       <c r="K11">
-        <v>20.45435240405286</v>
+        <v>13.36122700851781</v>
       </c>
       <c r="L11">
-        <v>6.279562927210314</v>
+        <v>5.474230543492393</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.78477321579476</v>
+        <v>17.61354323301188</v>
       </c>
       <c r="C12">
-        <v>13.20040997446983</v>
+        <v>6.517754924685164</v>
       </c>
       <c r="D12">
-        <v>7.30691946306319</v>
+        <v>7.172502677556174</v>
       </c>
       <c r="E12">
-        <v>5.209857329688332</v>
+        <v>5.332281082113661</v>
       </c>
       <c r="F12">
-        <v>82.4706844382148</v>
+        <v>83.6443583628582</v>
       </c>
       <c r="G12">
-        <v>2.095211515117168</v>
+        <v>2.150924424208508</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.284326442090588</v>
+        <v>7.962353464265498</v>
       </c>
       <c r="K12">
-        <v>20.76234797843192</v>
+        <v>13.49098713257006</v>
       </c>
       <c r="L12">
-        <v>6.294802990154174</v>
+        <v>5.472158365842514</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.70654340369897</v>
+        <v>17.57453373343632</v>
       </c>
       <c r="C13">
-        <v>13.15712620901744</v>
+        <v>6.498429581155057</v>
       </c>
       <c r="D13">
-        <v>7.288792303629557</v>
+        <v>7.156957815366888</v>
       </c>
       <c r="E13">
-        <v>5.212330021948418</v>
+        <v>5.33463218797078</v>
       </c>
       <c r="F13">
-        <v>82.27936073538812</v>
+        <v>83.46933480934457</v>
       </c>
       <c r="G13">
-        <v>2.096133047191025</v>
+        <v>2.151629196919737</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.280868221363601</v>
+        <v>7.957444613789133</v>
       </c>
       <c r="K13">
-        <v>20.69611793483718</v>
+        <v>13.46298934485295</v>
       </c>
       <c r="L13">
-        <v>6.291462694913992</v>
+        <v>5.472560699088548</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.46109654076227</v>
+        <v>17.44745335169003</v>
       </c>
       <c r="C14">
-        <v>13.0157165964964</v>
+        <v>6.435277948314743</v>
       </c>
       <c r="D14">
-        <v>7.229622425049557</v>
+        <v>7.106170796327755</v>
       </c>
       <c r="E14">
-        <v>5.220417180560641</v>
+        <v>5.342370659290864</v>
       </c>
       <c r="F14">
-        <v>81.65518389425614</v>
+        <v>82.89772461787969</v>
       </c>
       <c r="G14">
-        <v>2.099134818857476</v>
+        <v>2.153927522526848</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.269663073884214</v>
+        <v>7.941486020802466</v>
       </c>
       <c r="K14">
-        <v>20.47973815240928</v>
+        <v>13.37187925246275</v>
       </c>
       <c r="L14">
-        <v>6.280790721679125</v>
+        <v>5.47404036419883</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.32372657906651</v>
+        <v>17.36971831194498</v>
       </c>
       <c r="C15">
-        <v>12.9288989230975</v>
+        <v>6.396495657342313</v>
       </c>
       <c r="D15">
-        <v>7.193336244055555</v>
+        <v>7.074990771636609</v>
       </c>
       <c r="E15">
-        <v>5.225388761743929</v>
+        <v>5.347165017527035</v>
       </c>
       <c r="F15">
-        <v>81.27266530653287</v>
+        <v>82.54696159226451</v>
       </c>
       <c r="G15">
-        <v>2.100970968157217</v>
+        <v>2.155335340776127</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.26285466858954</v>
+        <v>7.931749046210252</v>
       </c>
       <c r="K15">
-        <v>20.34689198715322</v>
+        <v>13.31622212720433</v>
       </c>
       <c r="L15">
-        <v>6.274422071334938</v>
+        <v>5.475074175671019</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.53688489848622</v>
+        <v>16.92584384263881</v>
       </c>
       <c r="C16">
-        <v>12.42804983394671</v>
+        <v>6.172631218536834</v>
       </c>
       <c r="D16">
-        <v>6.984660171933164</v>
+        <v>6.895178329871328</v>
       </c>
       <c r="E16">
-        <v>5.254160555996602</v>
+        <v>5.375462588378941</v>
       </c>
       <c r="F16">
-        <v>79.07703368899563</v>
+        <v>80.52696876968957</v>
       </c>
       <c r="G16">
-        <v>2.111462473851735</v>
+        <v>2.16340729361116</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.224646287094649</v>
+        <v>7.876515766290236</v>
       </c>
       <c r="K16">
-        <v>19.58057319650841</v>
+        <v>12.99955411130455</v>
       </c>
       <c r="L16">
-        <v>6.240427769932859</v>
+        <v>5.482900523302423</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.05430988655341</v>
+        <v>16.6549529604592</v>
       </c>
       <c r="C17">
-        <v>12.11755192409162</v>
+        <v>6.033765564137967</v>
       </c>
       <c r="D17">
-        <v>6.855912471286612</v>
+        <v>6.783822587769037</v>
       </c>
       <c r="E17">
-        <v>5.272069151038431</v>
+        <v>5.393546745253484</v>
       </c>
       <c r="F17">
-        <v>77.72629716943463</v>
+        <v>79.27877478665101</v>
       </c>
       <c r="G17">
-        <v>2.117879385317173</v>
+        <v>2.168367070937983</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.201890316320475</v>
+        <v>7.843116857421714</v>
       </c>
       <c r="K17">
-        <v>19.10564840340766</v>
+        <v>12.80730504505496</v>
       </c>
       <c r="L17">
-        <v>6.221726101653631</v>
+        <v>5.489344501202501</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.77672563819266</v>
+        <v>16.49966355200213</v>
       </c>
       <c r="C18">
-        <v>11.93766917756578</v>
+        <v>5.953297704459046</v>
       </c>
       <c r="D18">
-        <v>6.781563960601181</v>
+        <v>6.719375993428319</v>
       </c>
       <c r="E18">
-        <v>5.282467095382771</v>
+        <v>5.404210794405672</v>
       </c>
       <c r="F18">
-        <v>76.94779080335013</v>
+        <v>78.55749857604427</v>
       </c>
       <c r="G18">
-        <v>2.121566165173734</v>
+        <v>2.171224235339478</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.189039000339957</v>
+        <v>7.824077526067681</v>
       </c>
       <c r="K18">
-        <v>18.83059700429638</v>
+        <v>12.69746580441823</v>
       </c>
       <c r="L18">
-        <v>6.211730348937379</v>
+        <v>5.493633808334199</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.68273192314811</v>
+        <v>16.4471750739152</v>
       </c>
       <c r="C19">
-        <v>11.87653296534579</v>
+        <v>5.925947330888821</v>
       </c>
       <c r="D19">
-        <v>6.756337610588906</v>
+        <v>6.697486050673033</v>
       </c>
       <c r="E19">
-        <v>5.286004624389197</v>
+        <v>5.40786620873697</v>
       </c>
       <c r="F19">
-        <v>76.68391058606511</v>
+        <v>78.31270924481483</v>
       </c>
       <c r="G19">
-        <v>2.122814019418318</v>
+        <v>2.172192521938859</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.184727276807848</v>
+        <v>7.817659812558136</v>
       </c>
       <c r="K19">
-        <v>18.7371348306928</v>
+        <v>12.66040272471193</v>
       </c>
       <c r="L19">
-        <v>6.208473913784324</v>
+        <v>5.495184301788131</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.10568159957293</v>
+        <v>16.68373605860857</v>
       </c>
       <c r="C20">
-        <v>12.15073655832223</v>
+        <v>6.048609018359952</v>
       </c>
       <c r="D20">
-        <v>6.869647971257718</v>
+        <v>6.795717484193753</v>
       </c>
       <c r="E20">
-        <v>5.270152727203425</v>
+        <v>5.391594404746317</v>
       </c>
       <c r="F20">
-        <v>77.87024664669214</v>
+        <v>79.41199297313754</v>
       </c>
       <c r="G20">
-        <v>2.117196779493669</v>
+        <v>2.167838668870554</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.204287865922344</v>
+        <v>7.846654387198394</v>
       </c>
       <c r="K20">
-        <v>19.15639776175885</v>
+        <v>12.82769394656606</v>
       </c>
       <c r="L20">
-        <v>6.223637512064013</v>
+        <v>5.488597743419716</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.52697902944308</v>
+        <v>17.48475791397788</v>
       </c>
       <c r="C21">
-        <v>13.05729309511718</v>
+        <v>6.453847763966001</v>
       </c>
       <c r="D21">
-        <v>7.247010803633009</v>
+        <v>7.121102986088652</v>
       </c>
       <c r="E21">
-        <v>5.218038058052458</v>
+        <v>5.340086338670893</v>
       </c>
       <c r="F21">
-        <v>81.83855821884802</v>
+        <v>83.06575230577255</v>
       </c>
       <c r="G21">
-        <v>2.098253671168115</v>
+        <v>2.153252452451975</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.272942730642982</v>
+        <v>7.94616545448394</v>
       </c>
       <c r="K21">
-        <v>20.54335737684916</v>
+        <v>13.39860907091847</v>
       </c>
       <c r="L21">
-        <v>6.283890088209708</v>
+        <v>5.47357905847101</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.58130837267161</v>
+        <v>18.01298316592425</v>
       </c>
       <c r="C22">
-        <v>13.64054088804631</v>
+        <v>6.714123717015265</v>
       </c>
       <c r="D22">
-        <v>7.491640735059847</v>
+        <v>7.330523564041052</v>
       </c>
       <c r="E22">
-        <v>5.184789120387139</v>
+        <v>5.308843810774586</v>
       </c>
       <c r="F22">
-        <v>84.42287582102338</v>
+        <v>85.42512148365175</v>
       </c>
       <c r="G22">
-        <v>2.085768743378824</v>
+        <v>2.143724959869793</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.320239031373966</v>
+        <v>8.012887709397761</v>
       </c>
       <c r="K22">
-        <v>21.43572974778427</v>
+        <v>13.84463379313376</v>
       </c>
       <c r="L22">
-        <v>6.330715837096597</v>
+        <v>5.469411856252481</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.01906168789927</v>
+        <v>17.73061554088341</v>
       </c>
       <c r="C23">
-        <v>13.32997452277688</v>
+        <v>6.575589064966847</v>
       </c>
       <c r="D23">
-        <v>7.36122400702003</v>
+        <v>7.2190311910122</v>
       </c>
       <c r="E23">
-        <v>5.202463365835492</v>
+        <v>5.325292653344981</v>
       </c>
       <c r="F23">
-        <v>83.04412031449802</v>
+        <v>84.16840856120309</v>
       </c>
       <c r="G23">
-        <v>2.092445406850657</v>
+        <v>2.148811241584184</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.294757408229032</v>
+        <v>7.977113830966625</v>
       </c>
       <c r="K23">
-        <v>20.96059351633832</v>
+        <v>13.57509493888644</v>
       </c>
       <c r="L23">
-        <v>6.305007505671502</v>
+        <v>5.471095652394211</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.08245691673224</v>
+        <v>16.67072181998324</v>
       </c>
       <c r="C24">
-        <v>12.13573808648766</v>
+        <v>6.041900269450715</v>
       </c>
       <c r="D24">
-        <v>6.863439185178054</v>
+        <v>6.790341133652612</v>
       </c>
       <c r="E24">
-        <v>5.271018823930278</v>
+        <v>5.392476226419133</v>
       </c>
       <c r="F24">
-        <v>77.80517321012901</v>
+        <v>79.35177648123958</v>
       </c>
       <c r="G24">
-        <v>2.117505392315261</v>
+        <v>2.168077541261692</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.203203216268121</v>
+        <v>7.845054566669127</v>
       </c>
       <c r="K24">
-        <v>19.13346026784841</v>
+        <v>12.81847398423649</v>
       </c>
       <c r="L24">
-        <v>6.222771015491808</v>
+        <v>5.488933536687416</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.05589611746068</v>
+        <v>15.54766533160462</v>
       </c>
       <c r="C25">
-        <v>10.79724555975255</v>
+        <v>5.44313438342676</v>
       </c>
       <c r="D25">
-        <v>6.315002211290347</v>
+        <v>6.312640385144971</v>
       </c>
       <c r="E25">
-        <v>5.348717927368852</v>
+        <v>5.474945985111146</v>
       </c>
       <c r="F25">
-        <v>72.09235076631205</v>
+        <v>74.02877609006104</v>
       </c>
       <c r="G25">
-        <v>2.144408403427367</v>
+        <v>2.189043675987612</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.113393816410789</v>
+        <v>7.709068944289251</v>
       </c>
       <c r="K25">
-        <v>17.38963448697038</v>
+        <v>12.03069472549477</v>
       </c>
       <c r="L25">
-        <v>6.162860933099699</v>
+        <v>5.530244916791356</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.73977855033865</v>
+        <v>26.24678805718557</v>
       </c>
       <c r="C2">
-        <v>4.979090324158706</v>
+        <v>19.79684940052508</v>
       </c>
       <c r="D2">
-        <v>5.946634274053439</v>
+        <v>9.442240316330984</v>
       </c>
       <c r="E2">
-        <v>5.543910652472682</v>
+        <v>30.67466357065959</v>
       </c>
       <c r="F2">
-        <v>69.99997475314434</v>
+        <v>63.54804827132347</v>
       </c>
       <c r="G2">
-        <v>2.204795613031072</v>
+        <v>2.010439868272769</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.613746810632517</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>11.4755787941221</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.577499336827699</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.20593490434878</v>
+        <v>24.21958043420728</v>
       </c>
       <c r="C3">
-        <v>4.648790208896861</v>
+        <v>18.26974872213662</v>
       </c>
       <c r="D3">
-        <v>5.689388584349653</v>
+        <v>8.914116238228157</v>
       </c>
       <c r="E3">
-        <v>5.595641800416867</v>
+        <v>28.2244039492688</v>
       </c>
       <c r="F3">
-        <v>67.20514658578084</v>
+        <v>59.22243557171265</v>
       </c>
       <c r="G3">
-        <v>2.215733762459319</v>
+        <v>2.029395341366887</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.551824230532532</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>11.11576712905101</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>5.61908123908086</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.88572779375094</v>
+        <v>22.930789809534</v>
       </c>
       <c r="C4">
-        <v>4.437813406891027</v>
+        <v>17.30170589585188</v>
       </c>
       <c r="D4">
-        <v>5.526881057324944</v>
+        <v>8.588640760384001</v>
       </c>
       <c r="E4">
-        <v>5.629825899379721</v>
+        <v>26.67941584961203</v>
       </c>
       <c r="F4">
-        <v>65.45967664495602</v>
+        <v>56.51277687824792</v>
       </c>
       <c r="G4">
-        <v>2.222598915514387</v>
+        <v>2.041032923588916</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.515032132149538</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>10.90332373904729</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5.649044712174224</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.75729055360535</v>
+        <v>22.39372297482674</v>
       </c>
       <c r="C5">
-        <v>4.349737232337465</v>
+        <v>16.89888094117254</v>
       </c>
       <c r="D5">
-        <v>5.459517832574545</v>
+        <v>8.455562333510173</v>
       </c>
       <c r="E5">
-        <v>5.644359344535379</v>
+        <v>26.03828905836542</v>
       </c>
       <c r="F5">
-        <v>64.74145822362991</v>
+        <v>55.39410197988848</v>
       </c>
       <c r="G5">
-        <v>2.225436633947389</v>
+        <v>2.045788770045434</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.500335592059268</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>10.81895134307705</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5.662330562872239</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.73609190145839</v>
+        <v>22.30380541782452</v>
       </c>
       <c r="C6">
-        <v>4.334984105229744</v>
+        <v>16.83147007907164</v>
       </c>
       <c r="D6">
-        <v>5.448263680389939</v>
+        <v>8.43343485181971</v>
       </c>
       <c r="E6">
-        <v>5.646808887366934</v>
+        <v>25.93109875840167</v>
       </c>
       <c r="F6">
-        <v>64.62179620249314</v>
+        <v>55.20745322129684</v>
       </c>
       <c r="G6">
-        <v>2.225910330650987</v>
+        <v>2.046579647295397</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.497912804845089</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>10.80507623028538</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>5.664600535712415</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.88398714470689</v>
+        <v>22.92359577425717</v>
       </c>
       <c r="C7">
-        <v>4.436634145848794</v>
+        <v>17.29630786899273</v>
       </c>
       <c r="D7">
-        <v>5.525977176204673</v>
+        <v>8.5868479638106</v>
       </c>
       <c r="E7">
-        <v>5.630019467367905</v>
+        <v>26.67081769861645</v>
       </c>
       <c r="F7">
-        <v>65.45001783737357</v>
+        <v>56.49774957047094</v>
       </c>
       <c r="G7">
-        <v>2.222637020235177</v>
+        <v>2.041096991607672</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.514832744624672</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>10.90217686582523</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>5.64921958474701</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.554219734973</v>
+        <v>25.55643791326133</v>
       </c>
       <c r="C8">
-        <v>4.866868356281786</v>
+        <v>19.27615912934608</v>
       </c>
       <c r="D8">
-        <v>5.858883083654296</v>
+        <v>9.260289089134478</v>
       </c>
       <c r="E8">
-        <v>5.561241510933098</v>
+        <v>29.83734108505769</v>
       </c>
       <c r="F8">
-        <v>69.04268055692854</v>
+        <v>62.06700749867034</v>
       </c>
       <c r="G8">
-        <v>2.208537789031929</v>
+        <v>2.016984953209485</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.592133159948779</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>11.34979437502156</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>5.590892620648095</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.92319093259104</v>
+        <v>30.41370968656153</v>
       </c>
       <c r="C9">
-        <v>5.648228719476267</v>
+        <v>22.95616959896649</v>
       </c>
       <c r="D9">
-        <v>6.475714370479009</v>
+        <v>10.58149212437364</v>
       </c>
       <c r="E9">
-        <v>5.445863647826428</v>
+        <v>35.80129715655028</v>
       </c>
       <c r="F9">
-        <v>75.8390923182679</v>
+        <v>72.63218803581518</v>
       </c>
       <c r="G9">
-        <v>2.181941944304872</v>
+        <v>1.968923078333752</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.754083646855959</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>12.29226554991473</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>5.513579030691365</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.95682458690876</v>
+        <v>33.87605203283832</v>
       </c>
       <c r="C10">
-        <v>6.18839833110211</v>
+        <v>25.60710150872071</v>
       </c>
       <c r="D10">
-        <v>6.907831811452324</v>
+        <v>11.57442240581359</v>
       </c>
       <c r="E10">
-        <v>5.373434897490495</v>
+        <v>40.1748490172909</v>
       </c>
       <c r="F10">
-        <v>80.66894531788493</v>
+        <v>80.54051721636908</v>
       </c>
       <c r="G10">
-        <v>2.162841840391616</v>
+        <v>1.931726294619023</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.8803504851528</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>13.02159114051848</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>5.482245689952419</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.43258180645407</v>
+        <v>35.45422905916183</v>
       </c>
       <c r="C11">
-        <v>6.427867596272307</v>
+        <v>26.82484214780176</v>
       </c>
       <c r="D11">
-        <v>7.100212494194087</v>
+        <v>12.03904925477299</v>
       </c>
       <c r="E11">
-        <v>5.343284273480352</v>
+        <v>42.21059482593153</v>
       </c>
       <c r="F11">
-        <v>82.83068583392796</v>
+        <v>84.18346965236199</v>
       </c>
       <c r="G11">
-        <v>2.154196735523982</v>
+        <v>1.913929765371231</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.939621768106214</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>13.36122700851781</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>5.474230543492393</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.61354323301188</v>
+        <v>36.05549049343355</v>
       </c>
       <c r="C12">
-        <v>6.517754924685164</v>
+        <v>27.29052468993865</v>
       </c>
       <c r="D12">
-        <v>7.172502677556174</v>
+        <v>12.21789564228058</v>
       </c>
       <c r="E12">
-        <v>5.332281082113661</v>
+        <v>42.99415990142951</v>
       </c>
       <c r="F12">
-        <v>83.6443583628582</v>
+        <v>85.57443696643972</v>
       </c>
       <c r="G12">
-        <v>2.150924424208508</v>
+        <v>1.907007552749045</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.962353464265498</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>13.49098713257006</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>5.472158365842514</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.57453373343632</v>
+        <v>35.92577224411583</v>
       </c>
       <c r="C13">
-        <v>6.498429581155057</v>
+        <v>27.18997185068548</v>
       </c>
       <c r="D13">
-        <v>7.156957815366888</v>
+        <v>12.17922750502245</v>
       </c>
       <c r="E13">
-        <v>5.33463218797078</v>
+        <v>42.82471849117065</v>
       </c>
       <c r="F13">
-        <v>83.46933480934457</v>
+        <v>85.27421405460521</v>
       </c>
       <c r="G13">
-        <v>2.151629196919737</v>
+        <v>1.90850766548506</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.957444613789133</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>13.46298934485295</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>5.472560699088548</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.44745335169003</v>
+        <v>35.503599680102</v>
       </c>
       <c r="C14">
-        <v>6.435277948314743</v>
+        <v>26.86304268634484</v>
       </c>
       <c r="D14">
-        <v>7.106170796327755</v>
+        <v>12.05369738572334</v>
       </c>
       <c r="E14">
-        <v>5.342370659290864</v>
+        <v>42.27476186777458</v>
       </c>
       <c r="F14">
-        <v>82.89772461787969</v>
+        <v>84.29762506640796</v>
       </c>
       <c r="G14">
-        <v>2.153927522526848</v>
+        <v>1.913364344850408</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.941486020802466</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>13.37187925246275</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>5.47404036419883</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.36971831194498</v>
+        <v>35.24559565407764</v>
       </c>
       <c r="C15">
-        <v>6.396495657342313</v>
+        <v>26.66348472232198</v>
       </c>
       <c r="D15">
-        <v>7.074990771636609</v>
+        <v>11.97722265277049</v>
       </c>
       <c r="E15">
-        <v>5.347165017527035</v>
+        <v>41.93976813747312</v>
       </c>
       <c r="F15">
-        <v>82.54696159226451</v>
+        <v>83.70118603006244</v>
       </c>
       <c r="G15">
-        <v>2.155335340776127</v>
+        <v>1.916313299920919</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.931749046210252</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>13.31622212720433</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>5.475074175671019</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.92584384263881</v>
+        <v>33.77322494453298</v>
       </c>
       <c r="C16">
-        <v>6.172631218536834</v>
+        <v>25.52797788720428</v>
       </c>
       <c r="D16">
-        <v>6.895178329871328</v>
+        <v>11.5443983169956</v>
       </c>
       <c r="E16">
-        <v>5.375462588378941</v>
+        <v>40.04320168908147</v>
       </c>
       <c r="F16">
-        <v>80.52696876968957</v>
+        <v>80.30360017115548</v>
       </c>
       <c r="G16">
-        <v>2.16340729361116</v>
+        <v>1.932867294210722</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.876515766290236</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>12.99955411130455</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>5.482900523302423</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.6549529604592</v>
+        <v>32.87271381570726</v>
       </c>
       <c r="C17">
-        <v>6.033765564137967</v>
+        <v>24.83613507090051</v>
       </c>
       <c r="D17">
-        <v>6.783822587769037</v>
+        <v>11.28281053043283</v>
       </c>
       <c r="E17">
-        <v>5.393546745253484</v>
+        <v>38.89516505701508</v>
       </c>
       <c r="F17">
-        <v>79.27877478665101</v>
+        <v>78.2313357347299</v>
       </c>
       <c r="G17">
-        <v>2.168367070937983</v>
+        <v>1.942763750988347</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.843116857421714</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>12.80730504505496</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5.489344501202501</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.49966355200213</v>
+        <v>32.35481734302617</v>
       </c>
       <c r="C18">
-        <v>5.953297704459046</v>
+        <v>24.43910093995113</v>
       </c>
       <c r="D18">
-        <v>6.719375993428319</v>
+        <v>11.13348911491293</v>
       </c>
       <c r="E18">
-        <v>5.404210794405672</v>
+        <v>38.23872953363013</v>
       </c>
       <c r="F18">
-        <v>78.55749857604427</v>
+        <v>77.04173180354569</v>
       </c>
       <c r="G18">
-        <v>2.171224235339478</v>
+        <v>1.948377868415365</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.824077526067681</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>12.69746580441823</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>5.493633808334199</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.4471750739152</v>
+        <v>32.17939591197614</v>
       </c>
       <c r="C19">
-        <v>5.925947330888821</v>
+        <v>24.30475469442337</v>
       </c>
       <c r="D19">
-        <v>6.697486050673033</v>
+        <v>11.08310118995642</v>
       </c>
       <c r="E19">
-        <v>5.40786620873697</v>
+        <v>38.01699054411644</v>
       </c>
       <c r="F19">
-        <v>78.31270924481483</v>
+        <v>76.63917250456655</v>
       </c>
       <c r="G19">
-        <v>2.172192521938859</v>
+        <v>1.950266731702656</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.817659812558136</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>12.66040272471193</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>5.495184301788131</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.68373605860857</v>
+        <v>32.96854963280244</v>
       </c>
       <c r="C20">
-        <v>6.048609018359952</v>
+        <v>24.90967278290232</v>
       </c>
       <c r="D20">
-        <v>6.795717484193753</v>
+        <v>11.31053303980021</v>
       </c>
       <c r="E20">
-        <v>5.391594404746317</v>
+        <v>39.01693697066612</v>
       </c>
       <c r="F20">
-        <v>79.41199297313754</v>
+        <v>78.45164968891322</v>
       </c>
       <c r="G20">
-        <v>2.167838668870554</v>
+        <v>1.941718685537057</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.846654387198394</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>12.82769394656606</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5.488597743419716</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.48475791397788</v>
+        <v>35.6274717944293</v>
       </c>
       <c r="C21">
-        <v>6.453847763966001</v>
+        <v>26.95891802727061</v>
       </c>
       <c r="D21">
-        <v>7.121102986088652</v>
+        <v>12.09047941382316</v>
       </c>
       <c r="E21">
-        <v>5.340086338670893</v>
+        <v>42.43589318647892</v>
       </c>
       <c r="F21">
-        <v>83.06575230577255</v>
+        <v>84.58409143282279</v>
       </c>
       <c r="G21">
-        <v>2.153252452451975</v>
+        <v>1.911943352712931</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.94616545448394</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>13.39860907091847</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>5.47357905847101</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.01298316592425</v>
+        <v>37.38893267083115</v>
       </c>
       <c r="C22">
-        <v>6.714123717015265</v>
+        <v>28.32698059617297</v>
       </c>
       <c r="D22">
-        <v>7.330523564041052</v>
+        <v>12.61797675994057</v>
       </c>
       <c r="E22">
-        <v>5.308843810774586</v>
+        <v>44.7491161665681</v>
       </c>
       <c r="F22">
-        <v>85.42512148365175</v>
+        <v>88.66440359819417</v>
       </c>
       <c r="G22">
-        <v>2.143724959869793</v>
+        <v>1.891371730508755</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.012887709397761</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>13.84463379313376</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>5.469411856252481</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.73061554088341</v>
+        <v>36.44523670829629</v>
       </c>
       <c r="C23">
-        <v>6.575589064966847</v>
+        <v>27.59292849431206</v>
       </c>
       <c r="D23">
-        <v>7.2190311910122</v>
+        <v>12.3343483208511</v>
       </c>
       <c r="E23">
-        <v>5.325292653344981</v>
+        <v>43.50458967050593</v>
       </c>
       <c r="F23">
-        <v>84.16840856120309</v>
+        <v>86.47688851490064</v>
       </c>
       <c r="G23">
-        <v>2.148811241584184</v>
+        <v>1.902478127042289</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.977113830966625</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>13.57509493888644</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>5.471095652394211</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.67072181998324</v>
+        <v>32.92522304524128</v>
       </c>
       <c r="C24">
-        <v>6.041900269450715</v>
+        <v>24.87642435347673</v>
       </c>
       <c r="D24">
-        <v>6.790341133652612</v>
+        <v>11.29799643622048</v>
       </c>
       <c r="E24">
-        <v>5.392476226419133</v>
+        <v>38.96187313677655</v>
       </c>
       <c r="F24">
-        <v>79.35177648123958</v>
+        <v>78.35204073660913</v>
       </c>
       <c r="G24">
-        <v>2.168077541261692</v>
+        <v>1.942191390765354</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.845054566669127</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>12.81847398423649</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5.488933536687416</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.54766533160462</v>
+        <v>29.12536297092025</v>
       </c>
       <c r="C25">
-        <v>5.44313438342676</v>
+        <v>21.97609435544717</v>
       </c>
       <c r="D25">
-        <v>6.312640385144971</v>
+        <v>10.22222143521088</v>
       </c>
       <c r="E25">
-        <v>5.474945985111146</v>
+        <v>34.20189188957374</v>
       </c>
       <c r="F25">
-        <v>74.02877609006104</v>
+        <v>69.79983567977006</v>
       </c>
       <c r="G25">
-        <v>2.189043675987612</v>
+        <v>1.982132171959193</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.709068944289251</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>12.03069472549477</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>5.530244916791356</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,37 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24678805718557</v>
+        <v>24.95059154083955</v>
       </c>
       <c r="C2">
-        <v>19.79684940052508</v>
+        <v>20.06877886674375</v>
       </c>
       <c r="D2">
-        <v>9.442240316330984</v>
+        <v>9.611003004978826</v>
       </c>
       <c r="E2">
-        <v>30.67466357065959</v>
+        <v>30.04024143633222</v>
       </c>
       <c r="F2">
-        <v>63.54804827132347</v>
+        <v>62.62184248115091</v>
       </c>
       <c r="G2">
-        <v>2.010439868272769</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>2.047411979723615</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.968408593914997</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -462,34 +465,37 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.21958043420728</v>
+        <v>23.16697905829687</v>
       </c>
       <c r="C3">
-        <v>18.26974872213662</v>
+        <v>18.55492189886247</v>
       </c>
       <c r="D3">
-        <v>8.914116238228157</v>
+        <v>9.090117789138334</v>
       </c>
       <c r="E3">
-        <v>28.2244039492688</v>
+        <v>27.73463633535916</v>
       </c>
       <c r="F3">
-        <v>59.22243557171265</v>
+        <v>58.55250235741687</v>
       </c>
       <c r="G3">
-        <v>2.029395341366887</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>2.061114558592859</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.469401822719058</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -509,34 +515,37 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.930789809534</v>
+        <v>22.01767150050155</v>
       </c>
       <c r="C4">
-        <v>17.30170589585188</v>
+        <v>17.59605588522804</v>
       </c>
       <c r="D4">
-        <v>8.588640760384001</v>
+        <v>8.756510883322148</v>
       </c>
       <c r="E4">
-        <v>26.67941584961203</v>
+        <v>26.26761867079037</v>
       </c>
       <c r="F4">
-        <v>56.51277687824792</v>
+        <v>55.94403049702101</v>
       </c>
       <c r="G4">
-        <v>2.041032923588916</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>2.069629128883681</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.159878317903202</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -556,34 +565,37 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.39372297482674</v>
+        <v>21.53465770339592</v>
       </c>
       <c r="C5">
-        <v>16.89888094117254</v>
+        <v>17.21176187561178</v>
       </c>
       <c r="D5">
-        <v>8.455562333510173</v>
+        <v>8.599341179855269</v>
       </c>
       <c r="E5">
-        <v>26.03828905836542</v>
+        <v>25.65562908989511</v>
       </c>
       <c r="F5">
-        <v>55.39410197988848</v>
+        <v>54.7763154602218</v>
       </c>
       <c r="G5">
-        <v>2.045788770045434</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>2.073165267945906</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.03214591473613</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -603,34 +615,37 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.30380541782452</v>
+        <v>21.45271866951602</v>
       </c>
       <c r="C6">
-        <v>16.83147007907164</v>
+        <v>17.16490513056369</v>
       </c>
       <c r="D6">
-        <v>8.43343485181971</v>
+        <v>8.551361115453581</v>
       </c>
       <c r="E6">
-        <v>25.93109875840167</v>
+        <v>25.55258073977514</v>
       </c>
       <c r="F6">
-        <v>55.20745322129684</v>
+        <v>54.48676992597131</v>
       </c>
       <c r="G6">
-        <v>2.046579647295397</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>2.073797108809492</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.010309898759368</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -650,34 +665,37 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92359577425717</v>
+        <v>22.00873937241082</v>
       </c>
       <c r="C7">
-        <v>17.29630786899273</v>
+        <v>17.63702284210588</v>
       </c>
       <c r="D7">
-        <v>8.5868479638106</v>
+        <v>8.696038570198752</v>
       </c>
       <c r="E7">
-        <v>26.67081769861645</v>
+        <v>26.25776914509509</v>
       </c>
       <c r="F7">
-        <v>56.49774957047094</v>
+        <v>55.67681204830991</v>
       </c>
       <c r="G7">
-        <v>2.041096991607672</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>2.069793429437988</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.156094852201096</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -697,34 +715,37 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.55643791326133</v>
+        <v>24.34308979305988</v>
       </c>
       <c r="C8">
-        <v>19.27615912934608</v>
+        <v>19.60740477918525</v>
       </c>
       <c r="D8">
-        <v>9.260289089134478</v>
+        <v>9.360647453540675</v>
       </c>
       <c r="E8">
-        <v>29.83734108505769</v>
+        <v>29.25289858800457</v>
       </c>
       <c r="F8">
-        <v>62.06700749867034</v>
+        <v>60.92969100286781</v>
       </c>
       <c r="G8">
-        <v>2.016984953209485</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>2.052276056651788</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.792948885150529</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -744,34 +765,37 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.41370968656153</v>
+        <v>28.51220527708041</v>
       </c>
       <c r="C9">
-        <v>22.95616959896649</v>
+        <v>23.19012691006922</v>
       </c>
       <c r="D9">
-        <v>10.58149212437364</v>
+        <v>10.6552598898129</v>
       </c>
       <c r="E9">
-        <v>35.80129715655028</v>
+        <v>34.76331950442783</v>
       </c>
       <c r="F9">
-        <v>72.63218803581518</v>
+        <v>70.79289306852576</v>
       </c>
       <c r="G9">
-        <v>1.968923078333752</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>2.018197841580306</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5.034186733815996</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -791,34 +815,37 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.87605203283832</v>
+        <v>31.34823089041888</v>
       </c>
       <c r="C10">
-        <v>25.60710150872071</v>
+        <v>25.74797107448514</v>
       </c>
       <c r="D10">
-        <v>11.57442240581359</v>
+        <v>11.5238667744354</v>
       </c>
       <c r="E10">
-        <v>40.1748490172909</v>
+        <v>38.65643010765509</v>
       </c>
       <c r="F10">
-        <v>80.54051721636908</v>
+        <v>77.47453495590825</v>
       </c>
       <c r="G10">
-        <v>1.931726294619023</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>1.99298643577381</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5.95454836441022</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -838,34 +865,37 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.45422905916183</v>
+        <v>32.59076895400146</v>
       </c>
       <c r="C11">
-        <v>26.82484214780176</v>
+        <v>26.94837762867594</v>
       </c>
       <c r="D11">
-        <v>12.03904925477299</v>
+        <v>11.83146400046651</v>
       </c>
       <c r="E11">
-        <v>42.21059482593153</v>
+        <v>40.4086773985107</v>
       </c>
       <c r="F11">
-        <v>84.18346965236199</v>
+        <v>80.1184638196125</v>
       </c>
       <c r="G11">
-        <v>1.913929765371231</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>1.981530200075788</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6.374139711305668</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -885,34 +915,37 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.05549049343355</v>
+        <v>33.05913011279707</v>
       </c>
       <c r="C12">
-        <v>27.29052468993865</v>
+        <v>27.37652983048417</v>
       </c>
       <c r="D12">
-        <v>12.21789564228058</v>
+        <v>11.98928618133663</v>
       </c>
       <c r="E12">
-        <v>42.99415990142951</v>
+        <v>41.07521670544514</v>
       </c>
       <c r="F12">
-        <v>85.57443696643972</v>
+        <v>81.28302279646911</v>
       </c>
       <c r="G12">
-        <v>1.907007552749045</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>1.977034313512059</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6.538046398285531</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -932,34 +965,37 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.92577224411583</v>
+        <v>32.95912081462323</v>
       </c>
       <c r="C13">
-        <v>27.18997185068548</v>
+        <v>27.27929406823836</v>
       </c>
       <c r="D13">
-        <v>12.17922750502245</v>
+        <v>11.96372203230739</v>
       </c>
       <c r="E13">
-        <v>42.82471849117065</v>
+        <v>40.93220356058239</v>
       </c>
       <c r="F13">
-        <v>85.27421405460521</v>
+        <v>81.06659018957856</v>
       </c>
       <c r="G13">
-        <v>1.90850766548506</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>1.977981847756414</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.50333703022212</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -979,34 +1015,37 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.503599680102</v>
+        <v>32.62966990963741</v>
       </c>
       <c r="C14">
-        <v>26.86304268634484</v>
+        <v>26.98143693898982</v>
       </c>
       <c r="D14">
-        <v>12.05369738572334</v>
+        <v>11.84804571273014</v>
       </c>
       <c r="E14">
-        <v>42.27476186777458</v>
+        <v>40.46373884097984</v>
       </c>
       <c r="F14">
-        <v>84.29762506640796</v>
+        <v>80.22897490796537</v>
       </c>
       <c r="G14">
-        <v>1.913364344850408</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>1.981151614672319</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.387866123358314</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1026,34 +1065,37 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.24559565407764</v>
+        <v>32.42598993564806</v>
       </c>
       <c r="C15">
-        <v>26.66348472232198</v>
+        <v>26.80917259842181</v>
       </c>
       <c r="D15">
-        <v>11.97722265277049</v>
+        <v>11.76040012624363</v>
       </c>
       <c r="E15">
-        <v>41.93976813747312</v>
+        <v>40.17579522546377</v>
       </c>
       <c r="F15">
-        <v>83.70118603006244</v>
+        <v>79.64702712033608</v>
       </c>
       <c r="G15">
-        <v>1.916313299920919</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>1.983131446072713</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6.316136037252698</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1073,34 +1115,37 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.77322494453298</v>
+        <v>31.2562322021707</v>
       </c>
       <c r="C16">
-        <v>25.52797788720428</v>
+        <v>25.75837039075594</v>
       </c>
       <c r="D16">
-        <v>11.5443983169956</v>
+        <v>11.36122583403474</v>
       </c>
       <c r="E16">
-        <v>40.04320168908147</v>
+        <v>38.53303574413617</v>
       </c>
       <c r="F16">
-        <v>80.30360017115548</v>
+        <v>76.71951487989151</v>
       </c>
       <c r="G16">
-        <v>1.932867294210722</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>1.994101618075254</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5.916645168127635</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1120,34 +1165,37 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.87271381570726</v>
+        <v>30.52860603931145</v>
       </c>
       <c r="C17">
-        <v>24.83613507090051</v>
+        <v>25.11260824657765</v>
       </c>
       <c r="D17">
-        <v>11.28281053043283</v>
+        <v>11.11417586347915</v>
       </c>
       <c r="E17">
-        <v>38.89516505701508</v>
+        <v>37.52343715219463</v>
       </c>
       <c r="F17">
-        <v>78.2313357347299</v>
+        <v>74.90413621496364</v>
       </c>
       <c r="G17">
-        <v>1.942763750988347</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>2.000765994323129</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5.674159198722121</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1167,34 +1215,37 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.35481734302617</v>
+        <v>30.10904335535481</v>
       </c>
       <c r="C18">
-        <v>24.43910093995113</v>
+        <v>24.71196002021476</v>
       </c>
       <c r="D18">
-        <v>11.13348911491293</v>
+        <v>11.01508141054049</v>
       </c>
       <c r="E18">
-        <v>38.23872953363013</v>
+        <v>36.94382275984903</v>
       </c>
       <c r="F18">
-        <v>77.04173180354569</v>
+        <v>74.03220724564041</v>
       </c>
       <c r="G18">
-        <v>1.948377868415365</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>2.004470601181214</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5.537968254988689</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1214,34 +1265,37 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.17939591197614</v>
+        <v>29.9640665381946</v>
       </c>
       <c r="C19">
-        <v>24.30475469442337</v>
+        <v>24.59799224292251</v>
       </c>
       <c r="D19">
-        <v>11.08310118995642</v>
+        <v>10.94755542456199</v>
       </c>
       <c r="E19">
-        <v>38.01699054411644</v>
+        <v>36.74539478601159</v>
       </c>
       <c r="F19">
-        <v>76.63917250456655</v>
+        <v>73.59695846622095</v>
       </c>
       <c r="G19">
-        <v>1.950266731702656</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>2.005806854568524</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5.48997992077224</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1261,34 +1315,37 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.96854963280244</v>
+        <v>30.60669339439992</v>
       </c>
       <c r="C20">
-        <v>24.90967278290232</v>
+        <v>25.17923435505836</v>
       </c>
       <c r="D20">
-        <v>11.31053303980021</v>
+        <v>11.14398425005814</v>
       </c>
       <c r="E20">
-        <v>39.01693697066612</v>
+        <v>37.63123322179111</v>
       </c>
       <c r="F20">
-        <v>78.45164968891322</v>
+        <v>75.11217609992865</v>
       </c>
       <c r="G20">
-        <v>1.941718685537057</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>2.000049965955155</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5.700087670178486</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1308,34 +1365,37 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.6274717944293</v>
+        <v>32.7229971799303</v>
       </c>
       <c r="C21">
-        <v>26.95891802727061</v>
+        <v>27.09725400072911</v>
       </c>
       <c r="D21">
-        <v>12.09047941382316</v>
+        <v>11.83493828099227</v>
       </c>
       <c r="E21">
-        <v>42.43589318647892</v>
+        <v>40.59803099903036</v>
       </c>
       <c r="F21">
-        <v>84.58409143282279</v>
+        <v>80.28409172105951</v>
       </c>
       <c r="G21">
-        <v>1.911943352712931</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>1.980350605922608</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.418130598133569</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1355,34 +1415,37 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.38893267083115</v>
+        <v>34.08129923487518</v>
       </c>
       <c r="C22">
-        <v>28.32698059617297</v>
+        <v>28.31632421249627</v>
       </c>
       <c r="D22">
-        <v>12.61797675994057</v>
+        <v>12.34063268253754</v>
       </c>
       <c r="E22">
-        <v>44.7491161665681</v>
+        <v>42.5450686828101</v>
       </c>
       <c r="F22">
-        <v>88.66440359819417</v>
+        <v>83.85294153489181</v>
       </c>
       <c r="G22">
-        <v>1.891371730508755</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>1.967025420383101</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6.902902282270286</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1402,34 +1465,37 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.44523670829629</v>
+        <v>33.36312412851472</v>
       </c>
       <c r="C23">
-        <v>27.59292849431206</v>
+        <v>27.63157980812691</v>
       </c>
       <c r="D23">
-        <v>12.3343483208511</v>
+        <v>12.12759591186331</v>
       </c>
       <c r="E23">
-        <v>43.50458967050593</v>
+        <v>41.50872955452025</v>
       </c>
       <c r="F23">
-        <v>86.47688851490064</v>
+        <v>82.18101189308214</v>
       </c>
       <c r="G23">
-        <v>1.902478127042289</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>1.974013434103063</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6.647584658337502</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1449,34 +1515,37 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.92522304524128</v>
+        <v>30.57761457115394</v>
       </c>
       <c r="C24">
-        <v>24.87642435347673</v>
+        <v>25.09016676035566</v>
       </c>
       <c r="D24">
-        <v>11.29799643622048</v>
+        <v>11.22277727874402</v>
       </c>
       <c r="E24">
-        <v>38.96187313677655</v>
+        <v>37.58783342207083</v>
       </c>
       <c r="F24">
-        <v>78.35204073660913</v>
+        <v>75.39577328773804</v>
       </c>
       <c r="G24">
-        <v>1.942191390765354</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>2.000139213991619</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5.694405671848928</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1496,34 +1565,37 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.12536297092025</v>
+        <v>27.42068120127078</v>
       </c>
       <c r="C25">
-        <v>21.97609435544717</v>
+        <v>22.30475227935743</v>
       </c>
       <c r="D25">
-        <v>10.22222143521088</v>
+        <v>10.22152264775182</v>
       </c>
       <c r="E25">
-        <v>34.20189188957374</v>
+        <v>33.30120591419096</v>
       </c>
       <c r="F25">
-        <v>69.79983567977006</v>
+        <v>67.81943386746248</v>
       </c>
       <c r="G25">
-        <v>1.982132171959193</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>2.027633955245948</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.692282093865777</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,6 +1613,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_line/loading_percent.xlsx
@@ -427,40 +427,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.95059154083955</v>
+        <v>13.57210581069602</v>
       </c>
       <c r="C2">
-        <v>20.06877886674375</v>
+        <v>6.515323073507815</v>
       </c>
       <c r="D2">
-        <v>9.611003004978826</v>
+        <v>4.03651090965529</v>
       </c>
       <c r="E2">
-        <v>30.04024143633222</v>
+        <v>7.096331533348716</v>
       </c>
       <c r="F2">
-        <v>62.62184248115091</v>
+        <v>30.36538958399375</v>
       </c>
       <c r="G2">
-        <v>2.047411979723615</v>
+        <v>39.25442742555294</v>
       </c>
       <c r="I2">
-        <v>3.968408593914997</v>
+        <v>4.6767542210036</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.2050625099819</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.60859420884773</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.970802686893333</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.10766169490169</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.927698423236116</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -477,40 +477,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.16697905829687</v>
+        <v>12.75007401937467</v>
       </c>
       <c r="C3">
-        <v>18.55492189886247</v>
+        <v>6.15474171981099</v>
       </c>
       <c r="D3">
-        <v>9.090117789138334</v>
+        <v>3.9037908453589</v>
       </c>
       <c r="E3">
-        <v>27.73463633535916</v>
+        <v>7.046483321537263</v>
       </c>
       <c r="F3">
-        <v>58.55250235741687</v>
+        <v>30.03641002603807</v>
       </c>
       <c r="G3">
-        <v>2.061114558592859</v>
+        <v>38.73790592108613</v>
       </c>
       <c r="I3">
-        <v>3.469401822719058</v>
+        <v>4.901066898947545</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>13.194567040139</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>21.57278157321411</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.993547212795233</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.39832711352476</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.820866144484122</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,40 +527,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.01767150050155</v>
+        <v>12.21949320418245</v>
       </c>
       <c r="C4">
-        <v>17.59605588522804</v>
+        <v>5.925574704564259</v>
       </c>
       <c r="D4">
-        <v>8.756510883322148</v>
+        <v>3.822369197966519</v>
       </c>
       <c r="E4">
-        <v>26.26761867079037</v>
+        <v>7.017619996254957</v>
       </c>
       <c r="F4">
-        <v>55.94403049702101</v>
+        <v>29.84300988690177</v>
       </c>
       <c r="G4">
-        <v>2.069629128883681</v>
+        <v>38.43086898558787</v>
       </c>
       <c r="I4">
-        <v>3.159878317903202</v>
+        <v>5.044121308339062</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>13.19173416981502</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>21.55536881246812</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.008138471368881</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.938484581097121</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.758496800405826</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -577,40 +577,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.53465770339592</v>
+        <v>11.99524872621168</v>
       </c>
       <c r="C5">
-        <v>17.21176187561178</v>
+        <v>5.836289181895888</v>
       </c>
       <c r="D5">
-        <v>8.599341179855269</v>
+        <v>3.791661641544077</v>
       </c>
       <c r="E5">
-        <v>25.65562908989511</v>
+        <v>7.005832783243787</v>
       </c>
       <c r="F5">
-        <v>54.7763154602218</v>
+        <v>29.75292435547073</v>
       </c>
       <c r="G5">
-        <v>2.073165267945906</v>
+        <v>38.28493288044617</v>
       </c>
       <c r="I5">
-        <v>3.03214591473613</v>
+        <v>5.106116828719088</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>13.18707843047154</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>21.5395419655166</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.013629370414431</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.746388067038351</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.735560174685337</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -627,40 +627,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.45271866951602</v>
+        <v>11.95562370515034</v>
       </c>
       <c r="C6">
-        <v>17.16490513056369</v>
+        <v>5.828751227398081</v>
       </c>
       <c r="D6">
-        <v>8.551361115453581</v>
+        <v>3.789510895340663</v>
       </c>
       <c r="E6">
-        <v>25.55258073977514</v>
+        <v>7.003330565858317</v>
       </c>
       <c r="F6">
-        <v>54.48676992597131</v>
+        <v>29.72166230874542</v>
       </c>
       <c r="G6">
-        <v>2.073797108809492</v>
+        <v>38.23226765274237</v>
       </c>
       <c r="I6">
-        <v>3.010309898759368</v>
+        <v>5.119461669241001</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>13.18099551157908</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>21.52494109723868</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.013800617030649</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.715850131863755</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.733823227692494</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -677,40 +677,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.00873937241082</v>
+        <v>12.21110591187978</v>
       </c>
       <c r="C7">
-        <v>17.63702284210588</v>
+        <v>5.944214317608671</v>
       </c>
       <c r="D7">
-        <v>8.696038570198752</v>
+        <v>3.829886857042802</v>
       </c>
       <c r="E7">
-        <v>26.25776914509509</v>
+        <v>7.015899253351378</v>
       </c>
       <c r="F7">
-        <v>55.67681204830991</v>
+        <v>29.79710042703192</v>
       </c>
       <c r="G7">
-        <v>2.069793429437988</v>
+        <v>38.35119260267115</v>
       </c>
       <c r="I7">
-        <v>3.156094852201096</v>
+        <v>5.052827668038702</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>13.17705701592333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>21.5223358260594</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.006172936278931</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.940532507648939</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.763665738796508</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -727,40 +727,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.34308979305988</v>
+        <v>13.28736734349009</v>
       </c>
       <c r="C8">
-        <v>19.60740477918525</v>
+        <v>6.417237562291716</v>
       </c>
       <c r="D8">
-        <v>9.360647453540675</v>
+        <v>4.00079304625284</v>
       </c>
       <c r="E8">
-        <v>29.25289858800457</v>
+        <v>7.076727747938505</v>
       </c>
       <c r="F8">
-        <v>60.92969100286781</v>
+        <v>30.19206008542844</v>
       </c>
       <c r="G8">
-        <v>2.052276056651788</v>
+        <v>38.97340580930314</v>
       </c>
       <c r="I8">
-        <v>3.792948885150529</v>
+        <v>4.763002327891014</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.1815257147065</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>21.55223432838217</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.97585983867434</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.87376777450675</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.897280420869863</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -777,40 +777,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.51220527708041</v>
+        <v>15.19816956125358</v>
       </c>
       <c r="C9">
-        <v>23.19012691006922</v>
+        <v>7.250636929345772</v>
       </c>
       <c r="D9">
-        <v>10.6552598898129</v>
+        <v>4.321111823489655</v>
       </c>
       <c r="E9">
-        <v>34.76331950442783</v>
+        <v>7.212458480519805</v>
       </c>
       <c r="F9">
-        <v>70.79289306852576</v>
+        <v>31.11264405956542</v>
       </c>
       <c r="G9">
-        <v>2.018197841580306</v>
+        <v>40.40824936606447</v>
       </c>
       <c r="I9">
-        <v>5.034186733815996</v>
+        <v>4.222991148332021</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>13.24583124206785</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.70663855509147</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.924896407712259</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.50429692042874</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.174580935450442</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -827,40 +827,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.34823089041888</v>
+        <v>16.46954784874517</v>
       </c>
       <c r="C10">
-        <v>25.74797107448514</v>
+        <v>7.83368825221585</v>
       </c>
       <c r="D10">
-        <v>11.5238667744354</v>
+        <v>4.556495316305555</v>
       </c>
       <c r="E10">
-        <v>38.65643010765509</v>
+        <v>7.319501809027967</v>
       </c>
       <c r="F10">
-        <v>77.47453495590825</v>
+        <v>31.80897001449433</v>
       </c>
       <c r="G10">
-        <v>1.99298643577381</v>
+        <v>41.47304914063869</v>
       </c>
       <c r="I10">
-        <v>5.95454836441022</v>
+        <v>3.854583232053166</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.3056641635775</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.82928022995617</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.889401687492829</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.58829540736649</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.394761942908413</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -877,40 +877,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.59076895400146</v>
+        <v>17.01253010930248</v>
       </c>
       <c r="C11">
-        <v>26.94837762867594</v>
+        <v>8.115497166571481</v>
       </c>
       <c r="D11">
-        <v>11.83146400046651</v>
+        <v>4.67286204341846</v>
       </c>
       <c r="E11">
-        <v>40.4086773985107</v>
+        <v>7.367413322334845</v>
       </c>
       <c r="F11">
-        <v>80.1184638196125</v>
+        <v>32.06806930452271</v>
       </c>
       <c r="G11">
-        <v>1.981530200075788</v>
+        <v>41.85328255187489</v>
       </c>
       <c r="I11">
-        <v>6.374139711305668</v>
+        <v>3.70604705462508</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>13.31467686221696</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.83974689238569</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.870716147699884</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.06206470338538</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.505587495547651</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -927,40 +927,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.05913011279707</v>
+        <v>17.22198475356279</v>
       </c>
       <c r="C12">
-        <v>27.37652983048417</v>
+        <v>8.207514177093675</v>
       </c>
       <c r="D12">
-        <v>11.98928618133663</v>
+        <v>4.710989485543037</v>
       </c>
       <c r="E12">
-        <v>41.07521670544514</v>
+        <v>7.387121220899605</v>
       </c>
       <c r="F12">
-        <v>81.28302279646911</v>
+        <v>32.20329318385911</v>
       </c>
       <c r="G12">
-        <v>1.977034313512059</v>
+        <v>42.06033671611956</v>
       </c>
       <c r="I12">
-        <v>6.538046398285531</v>
+        <v>3.643359817439024</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.3309873860967</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.87201433520336</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.86541409751525</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.23494376807113</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.543652834114553</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -977,40 +977,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.95912081462323</v>
+        <v>17.17615293963311</v>
       </c>
       <c r="C13">
-        <v>27.27929406823836</v>
+        <v>8.185088996629716</v>
       </c>
       <c r="D13">
-        <v>11.96372203230739</v>
+        <v>4.701658921021388</v>
       </c>
       <c r="E13">
-        <v>40.93220356058239</v>
+        <v>7.383132016395942</v>
       </c>
       <c r="F13">
-        <v>81.06659018957856</v>
+        <v>32.18124386480401</v>
       </c>
       <c r="G13">
-        <v>1.977981847756414</v>
+        <v>42.02792245541253</v>
       </c>
       <c r="I13">
-        <v>6.50333703022212</v>
+        <v>3.655296337184813</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.32988563001441</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.87050815899161</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.866890006613863</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.19728239539849</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.534590252255419</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1027,40 +1027,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.62966990963741</v>
+        <v>17.02981682578852</v>
       </c>
       <c r="C14">
-        <v>26.98143693898982</v>
+        <v>8.121952473665903</v>
       </c>
       <c r="D14">
-        <v>11.84804571273014</v>
+        <v>4.675520689431637</v>
       </c>
       <c r="E14">
-        <v>40.46373884097984</v>
+        <v>7.369142996508341</v>
       </c>
       <c r="F14">
-        <v>80.22897490796537</v>
+        <v>32.08220710460298</v>
       </c>
       <c r="G14">
-        <v>1.981151614672319</v>
+        <v>41.87550737170691</v>
       </c>
       <c r="I14">
-        <v>6.387866123358314</v>
+        <v>3.70022243998498</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13.31704358245627</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.84471597085402</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.870421845649449</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.07610737646825</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.508349954642123</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1077,40 +1077,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.42598993564806</v>
+        <v>16.93917298850139</v>
       </c>
       <c r="C15">
-        <v>26.80917259842181</v>
+        <v>8.088446026447803</v>
       </c>
       <c r="D15">
-        <v>11.76040012624363</v>
+        <v>4.661732170934266</v>
       </c>
       <c r="E15">
-        <v>40.17579522546377</v>
+        <v>7.36008056972701</v>
       </c>
       <c r="F15">
-        <v>79.64702712033608</v>
+        <v>32.00758422645498</v>
       </c>
       <c r="G15">
-        <v>1.983131446072713</v>
+        <v>41.7580609090102</v>
       </c>
       <c r="I15">
-        <v>6.316136037252698</v>
+        <v>3.730898398176099</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>13.30444729983996</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.81821103575616</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.871930348476522</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.00259775083024</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.494009151415558</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1127,40 +1127,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.2562322021707</v>
+        <v>16.42083199841958</v>
       </c>
       <c r="C16">
-        <v>25.75837039075594</v>
+        <v>7.860755204274053</v>
       </c>
       <c r="D16">
-        <v>11.36122583403474</v>
+        <v>4.568132293958498</v>
       </c>
       <c r="E16">
-        <v>38.53303574413617</v>
+        <v>7.311970668704337</v>
       </c>
       <c r="F16">
-        <v>76.71951487989151</v>
+        <v>31.67215566598178</v>
       </c>
       <c r="G16">
-        <v>1.994101618075254</v>
+        <v>41.24182973294081</v>
       </c>
       <c r="I16">
-        <v>5.916645168127635</v>
+        <v>3.888788667832936</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>13.26436451244334</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.73707760393223</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.885000018072605</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.56694530421974</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.401915075632558</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1177,40 +1177,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.52860603931145</v>
+        <v>16.09553272669619</v>
       </c>
       <c r="C17">
-        <v>25.11260824657765</v>
+        <v>7.719073795429618</v>
       </c>
       <c r="D17">
-        <v>11.11417586347915</v>
+        <v>4.510378722916419</v>
       </c>
       <c r="E17">
-        <v>37.52343715219463</v>
+        <v>7.282904350194702</v>
       </c>
       <c r="F17">
-        <v>74.90413621496364</v>
+        <v>31.46893458651346</v>
       </c>
       <c r="G17">
-        <v>2.000765994323129</v>
+        <v>40.92813610550357</v>
       </c>
       <c r="I17">
-        <v>5.674159198722121</v>
+        <v>3.98696461882672</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.24112171520205</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.68917692152183</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.893195670147207</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.29338676482499</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.346085399862454</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1227,40 +1227,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.10904335535481</v>
+        <v>15.9096706609274</v>
       </c>
       <c r="C18">
-        <v>24.71196002021476</v>
+        <v>7.622592003608177</v>
       </c>
       <c r="D18">
-        <v>11.01508141054049</v>
+        <v>4.471078716085079</v>
       </c>
       <c r="E18">
-        <v>36.94382275984903</v>
+        <v>7.267701178230797</v>
       </c>
       <c r="F18">
-        <v>74.03220724564041</v>
+        <v>31.38972227684699</v>
       </c>
       <c r="G18">
-        <v>2.004470601181214</v>
+        <v>40.81211539313509</v>
       </c>
       <c r="I18">
-        <v>5.537968254988689</v>
+        <v>4.035977612587646</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.24063966911076</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.69013602062414</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.899684676845132</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.13055363026432</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.309816273491869</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1277,40 +1277,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.9640665381946</v>
+        <v>15.84325748816939</v>
       </c>
       <c r="C19">
-        <v>24.59799224292251</v>
+        <v>7.600761678233272</v>
       </c>
       <c r="D19">
-        <v>10.94755542456199</v>
+        <v>4.462350171092905</v>
       </c>
       <c r="E19">
-        <v>36.74539478601159</v>
+        <v>7.261542445029878</v>
       </c>
       <c r="F19">
-        <v>73.59695846622095</v>
+        <v>31.33475653408919</v>
       </c>
       <c r="G19">
-        <v>2.005806854568524</v>
+        <v>40.72425117472071</v>
       </c>
       <c r="I19">
-        <v>5.48997992077224</v>
+        <v>4.058730932574258</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.23099570262262</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.66910867537092</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.900574458801276</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.07745500182786</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.300976867070706</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1327,40 +1327,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.60669339439992</v>
+        <v>16.1307445668718</v>
       </c>
       <c r="C20">
-        <v>25.17923435505836</v>
+        <v>7.733125994363349</v>
       </c>
       <c r="D20">
-        <v>11.14398425005814</v>
+        <v>4.516074169630633</v>
       </c>
       <c r="E20">
-        <v>37.63123322179111</v>
+        <v>7.286087043637446</v>
       </c>
       <c r="F20">
-        <v>75.11217609992865</v>
+        <v>31.49334026530487</v>
       </c>
       <c r="G20">
-        <v>2.000049965955155</v>
+        <v>40.96635670262842</v>
       </c>
       <c r="I20">
-        <v>5.700087670178486</v>
+        <v>3.975831045770145</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.24451677732774</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.69638579978937</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.89245037715947</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.3225027857908</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.351658548469553</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1377,40 +1377,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.7229971799303</v>
+        <v>17.06826650723109</v>
       </c>
       <c r="C21">
-        <v>27.09725400072911</v>
+        <v>8.155499809020318</v>
       </c>
       <c r="D21">
-        <v>11.83493828099227</v>
+        <v>4.68955276219873</v>
       </c>
       <c r="E21">
-        <v>40.59803099903036</v>
+        <v>7.371753607219716</v>
       </c>
       <c r="F21">
-        <v>80.28409172105951</v>
+        <v>32.07122168661646</v>
       </c>
       <c r="G21">
-        <v>1.980350605922608</v>
+        <v>41.85147427291317</v>
       </c>
       <c r="I21">
-        <v>6.418130598133569</v>
+        <v>3.695806305110584</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.30709399512463</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.82150641864622</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.867487381997071</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.1150904809536</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.520814654102646</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1427,40 +1427,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.08129923487518</v>
+        <v>17.69223915367544</v>
       </c>
       <c r="C22">
-        <v>28.31632421249627</v>
+        <v>8.406071542403339</v>
       </c>
       <c r="D22">
-        <v>12.34063268253754</v>
+        <v>4.793671292273948</v>
       </c>
       <c r="E22">
-        <v>42.5450686828101</v>
+        <v>7.431078292124314</v>
       </c>
       <c r="F22">
-        <v>83.85294153489181</v>
+        <v>32.50798081231869</v>
       </c>
       <c r="G22">
-        <v>1.967025420383101</v>
+        <v>42.52682379573636</v>
       </c>
       <c r="I22">
-        <v>6.902902282270286</v>
+        <v>3.505735862838888</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.36991026224558</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.94860916638606</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.854158030741906</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.60842902285207</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.627421391022566</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1477,40 +1477,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.36312412851472</v>
+        <v>17.3645910517651</v>
       </c>
       <c r="C23">
-        <v>27.63157980812691</v>
+        <v>8.255054491778251</v>
       </c>
       <c r="D23">
-        <v>12.12759591186331</v>
+        <v>4.730625250271374</v>
       </c>
       <c r="E23">
-        <v>41.50872955452025</v>
+        <v>7.401080481663594</v>
       </c>
       <c r="F23">
-        <v>82.18101189308214</v>
+        <v>32.32220886660738</v>
       </c>
       <c r="G23">
-        <v>1.974013434103063</v>
+        <v>42.24804331228723</v>
       </c>
       <c r="I23">
-        <v>6.647584658337502</v>
+        <v>3.596454095477925</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.35245323006417</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.91721436946884</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.863502018917811</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.34305753625497</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.564621182065723</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1527,40 +1527,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.57761457115394</v>
+        <v>16.12306635005104</v>
       </c>
       <c r="C24">
-        <v>25.09016676035566</v>
+        <v>7.696977968520752</v>
       </c>
       <c r="D24">
-        <v>11.22277727874402</v>
+        <v>4.500976619818594</v>
       </c>
       <c r="E24">
-        <v>37.58783342207083</v>
+        <v>7.287497022007755</v>
       </c>
       <c r="F24">
-        <v>75.39577328773804</v>
+        <v>31.559745485275</v>
       </c>
       <c r="G24">
-        <v>2.000139213991619</v>
+        <v>41.0824437293354</v>
       </c>
       <c r="I24">
-        <v>5.694405671848928</v>
+        <v>3.964665478526187</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.26919536155419</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.75198298081371</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.896403490311845</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.30273614142959</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.339860917651231</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1577,40 +1577,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.42068120127078</v>
+        <v>14.69546424886598</v>
       </c>
       <c r="C25">
-        <v>22.30475227935743</v>
+        <v>7.062753261653391</v>
       </c>
       <c r="D25">
-        <v>10.22152264775182</v>
+        <v>4.247744081447167</v>
       </c>
       <c r="E25">
-        <v>33.30120591419096</v>
+        <v>7.171510040726463</v>
       </c>
       <c r="F25">
-        <v>67.81943386746248</v>
+        <v>30.7791119943279</v>
       </c>
       <c r="G25">
-        <v>2.027633955245948</v>
+        <v>39.87820172120225</v>
       </c>
       <c r="I25">
-        <v>4.692282093865777</v>
+        <v>4.378953640874247</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>13.19929345030186</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.60264591935715</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.934604052869222</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.09061120884763</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.106353765727789</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.57210581069602</v>
+        <v>13.32728861838114</v>
       </c>
       <c r="C2">
-        <v>6.515323073507815</v>
+        <v>6.762898060771941</v>
       </c>
       <c r="D2">
-        <v>4.03651090965529</v>
+        <v>4.327184856771408</v>
       </c>
       <c r="E2">
-        <v>7.096331533348716</v>
+        <v>6.953838678953736</v>
       </c>
       <c r="F2">
-        <v>30.36538958399375</v>
+        <v>28.31655585418261</v>
       </c>
       <c r="G2">
-        <v>39.25442742555294</v>
+        <v>35.91697422605361</v>
       </c>
       <c r="I2">
-        <v>4.6767542210036</v>
+        <v>4.321428641118249</v>
       </c>
       <c r="J2">
-        <v>13.2050625099819</v>
+        <v>12.393125409198</v>
       </c>
       <c r="K2">
-        <v>21.60859420884773</v>
+        <v>19.85153076624686</v>
       </c>
       <c r="L2">
-        <v>5.970802686893333</v>
+        <v>15.19139149147216</v>
       </c>
       <c r="M2">
-        <v>11.10766169490169</v>
+        <v>14.1965337656783</v>
       </c>
       <c r="N2">
-        <v>6.927698423236116</v>
+        <v>5.776932010679651</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.33589551817477</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.180965826609579</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.75007401937467</v>
+        <v>12.50103810402364</v>
       </c>
       <c r="C3">
-        <v>6.15474171981099</v>
+        <v>6.306604675199695</v>
       </c>
       <c r="D3">
-        <v>3.9037908453589</v>
+        <v>4.170397796555967</v>
       </c>
       <c r="E3">
-        <v>7.046483321537263</v>
+        <v>6.906916287276998</v>
       </c>
       <c r="F3">
-        <v>30.03641002603807</v>
+        <v>28.11584207703364</v>
       </c>
       <c r="G3">
-        <v>38.73790592108613</v>
+        <v>35.71809343718121</v>
       </c>
       <c r="I3">
-        <v>4.901066898947545</v>
+        <v>4.515045033647763</v>
       </c>
       <c r="J3">
-        <v>13.194567040139</v>
+        <v>12.36860289895489</v>
       </c>
       <c r="K3">
-        <v>21.57278157321411</v>
+        <v>19.90732061790393</v>
       </c>
       <c r="L3">
-        <v>5.993547212795233</v>
+        <v>15.28496988969131</v>
       </c>
       <c r="M3">
-        <v>10.39832711352476</v>
+        <v>14.22004891403511</v>
       </c>
       <c r="N3">
-        <v>6.820866144484122</v>
+        <v>5.801877469472359</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.61813043895539</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.055682661221504</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.21949320418245</v>
+        <v>11.96549843478532</v>
       </c>
       <c r="C4">
-        <v>5.925574704564259</v>
+        <v>6.014745023859135</v>
       </c>
       <c r="D4">
-        <v>3.822369197966519</v>
+        <v>4.073852912182745</v>
       </c>
       <c r="E4">
-        <v>7.017619996254957</v>
+        <v>6.879720180643903</v>
       </c>
       <c r="F4">
-        <v>29.84300988690177</v>
+        <v>27.99989546193886</v>
       </c>
       <c r="G4">
-        <v>38.43086898558787</v>
+        <v>35.61003698401841</v>
       </c>
       <c r="I4">
-        <v>5.044121308339062</v>
+        <v>4.638857806053441</v>
       </c>
       <c r="J4">
-        <v>13.19173416981502</v>
+        <v>12.35433198320904</v>
       </c>
       <c r="K4">
-        <v>21.55536881246812</v>
+        <v>19.94467480243223</v>
       </c>
       <c r="L4">
-        <v>6.008138471368881</v>
+        <v>15.34024498301176</v>
       </c>
       <c r="M4">
-        <v>9.938484581097121</v>
+        <v>14.25235124643878</v>
       </c>
       <c r="N4">
-        <v>6.758496800405826</v>
+        <v>5.817717777572297</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.1528112931224</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.981870395290405</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.99524872621168</v>
+        <v>11.7386601013771</v>
       </c>
       <c r="C5">
-        <v>5.836289181895888</v>
+        <v>5.899490686124395</v>
       </c>
       <c r="D5">
-        <v>3.791661641544077</v>
+        <v>4.036753275384483</v>
       </c>
       <c r="E5">
-        <v>7.005832783243787</v>
+        <v>6.868626098170423</v>
       </c>
       <c r="F5">
-        <v>29.75292435547073</v>
+        <v>27.94219024546471</v>
       </c>
       <c r="G5">
-        <v>38.28493288044617</v>
+        <v>35.54847984554004</v>
       </c>
       <c r="I5">
-        <v>5.106116828719088</v>
+        <v>4.693254724106279</v>
       </c>
       <c r="J5">
-        <v>13.18707843047154</v>
+        <v>12.34459148056719</v>
       </c>
       <c r="K5">
-        <v>21.5395419655166</v>
+        <v>19.95196158457627</v>
       </c>
       <c r="L5">
-        <v>6.013629370414431</v>
+        <v>15.35418068221145</v>
       </c>
       <c r="M5">
-        <v>9.746388067038351</v>
+        <v>14.26480025869421</v>
       </c>
       <c r="N5">
-        <v>6.735560174685337</v>
+        <v>5.823782488323644</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.958318143269352</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.954133409244688</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.95562370515034</v>
+        <v>11.69865133450117</v>
       </c>
       <c r="C6">
-        <v>5.828751227398081</v>
+        <v>5.888266802228273</v>
       </c>
       <c r="D6">
-        <v>3.789510895340663</v>
+        <v>4.033342197799526</v>
       </c>
       <c r="E6">
-        <v>7.003330565858317</v>
+        <v>6.866293185380122</v>
       </c>
       <c r="F6">
-        <v>29.72166230874542</v>
+        <v>27.91773400730653</v>
       </c>
       <c r="G6">
-        <v>38.23226765274237</v>
+        <v>35.5128842757175</v>
       </c>
       <c r="I6">
-        <v>5.119461669241001</v>
+        <v>4.705790329795325</v>
       </c>
       <c r="J6">
-        <v>13.18099551157908</v>
+        <v>12.33795275718215</v>
       </c>
       <c r="K6">
-        <v>21.52494109723868</v>
+        <v>19.94260811288722</v>
       </c>
       <c r="L6">
-        <v>6.013800617030649</v>
+        <v>15.34665021692975</v>
       </c>
       <c r="M6">
-        <v>9.715850131863755</v>
+        <v>14.26083927764405</v>
       </c>
       <c r="N6">
-        <v>6.733823227692494</v>
+        <v>5.824157914837884</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.927250338779603</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.951451043879382</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.21110591187978</v>
+        <v>11.95930269262097</v>
       </c>
       <c r="C7">
-        <v>5.944214317608671</v>
+        <v>6.026918710002336</v>
       </c>
       <c r="D7">
-        <v>3.829886857042802</v>
+        <v>4.087335345350348</v>
       </c>
       <c r="E7">
-        <v>7.015899253351378</v>
+        <v>6.880078306620341</v>
       </c>
       <c r="F7">
-        <v>29.79710042703192</v>
+        <v>27.93502015568307</v>
       </c>
       <c r="G7">
-        <v>38.35119260267115</v>
+        <v>35.58791823013875</v>
       </c>
       <c r="I7">
-        <v>5.052827668038702</v>
+        <v>4.649408890440521</v>
       </c>
       <c r="J7">
-        <v>13.17705701592333</v>
+        <v>12.29805661162148</v>
       </c>
       <c r="K7">
-        <v>21.5223358260594</v>
+        <v>19.90232216369962</v>
       </c>
       <c r="L7">
-        <v>6.006172936278931</v>
+        <v>15.30184891743454</v>
       </c>
       <c r="M7">
-        <v>9.940532507648939</v>
+        <v>14.22660336829643</v>
       </c>
       <c r="N7">
-        <v>6.763665738796508</v>
+        <v>5.815719341651699</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.15244110015675</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.986698001871654</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.28736734349009</v>
+        <v>13.04786750695651</v>
       </c>
       <c r="C8">
-        <v>6.417237562291716</v>
+        <v>6.610257425269304</v>
       </c>
       <c r="D8">
-        <v>4.00079304625284</v>
+        <v>4.303549622452466</v>
       </c>
       <c r="E8">
-        <v>7.076727747938505</v>
+        <v>6.941794517032659</v>
       </c>
       <c r="F8">
-        <v>30.19206008542844</v>
+        <v>28.11679467201801</v>
       </c>
       <c r="G8">
-        <v>38.97340580930314</v>
+        <v>35.91552587653357</v>
       </c>
       <c r="I8">
-        <v>4.763002327891014</v>
+        <v>4.40100351049676</v>
       </c>
       <c r="J8">
-        <v>13.1815257147065</v>
+        <v>12.22818061345097</v>
       </c>
       <c r="K8">
-        <v>21.55223432838217</v>
+        <v>19.788113017199</v>
       </c>
       <c r="L8">
-        <v>5.97585983867434</v>
+        <v>15.15365688021372</v>
       </c>
       <c r="M8">
-        <v>10.87376777450675</v>
+        <v>14.14658069956416</v>
       </c>
       <c r="N8">
-        <v>6.897280420869863</v>
+        <v>5.782090139273284</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.09249290044452</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.144017356567814</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.19816956125358</v>
+        <v>14.97434338180163</v>
       </c>
       <c r="C9">
-        <v>7.250636929345772</v>
+        <v>7.65550440839652</v>
       </c>
       <c r="D9">
-        <v>4.321111823489655</v>
+        <v>4.685776086087527</v>
       </c>
       <c r="E9">
-        <v>7.212458480519805</v>
+        <v>7.070912873295492</v>
       </c>
       <c r="F9">
-        <v>31.11264405956542</v>
+        <v>28.68937298099857</v>
       </c>
       <c r="G9">
-        <v>40.40824936606447</v>
+        <v>36.61906105018279</v>
       </c>
       <c r="I9">
-        <v>4.222991148332021</v>
+        <v>3.934700970441656</v>
       </c>
       <c r="J9">
-        <v>13.24583124206785</v>
+        <v>12.27385811332278</v>
       </c>
       <c r="K9">
-        <v>21.70663855509147</v>
+        <v>19.69017578561803</v>
       </c>
       <c r="L9">
-        <v>5.924896407712259</v>
+        <v>14.9333087021408</v>
       </c>
       <c r="M9">
-        <v>12.50429692042874</v>
+        <v>14.19833565978141</v>
       </c>
       <c r="N9">
-        <v>7.174580935450442</v>
+        <v>5.72447658726027</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.74139407028701</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.466611281935398</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.46954784874517</v>
+        <v>16.29957242314759</v>
       </c>
       <c r="C10">
-        <v>7.83368825221585</v>
+        <v>8.340639338965406</v>
       </c>
       <c r="D10">
-        <v>4.556495316305555</v>
+        <v>4.996018052815413</v>
       </c>
       <c r="E10">
-        <v>7.319501809027967</v>
+        <v>7.183365559630575</v>
       </c>
       <c r="F10">
-        <v>31.80897001449433</v>
+        <v>29.00298368873988</v>
       </c>
       <c r="G10">
-        <v>41.47304914063869</v>
+        <v>37.46104121633712</v>
       </c>
       <c r="I10">
-        <v>3.854583232053166</v>
+        <v>3.623260849102546</v>
       </c>
       <c r="J10">
-        <v>13.3056641635775</v>
+        <v>12.07259068224251</v>
       </c>
       <c r="K10">
-        <v>21.82928022995617</v>
+        <v>19.54743447848698</v>
       </c>
       <c r="L10">
-        <v>5.889401687492829</v>
+        <v>14.69424813070087</v>
       </c>
       <c r="M10">
-        <v>13.58829540736649</v>
+        <v>14.25816359534311</v>
       </c>
       <c r="N10">
-        <v>7.394761942908413</v>
+        <v>5.681982647553997</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.827182461834</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.718519472001535</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.01253010930248</v>
+        <v>16.87357543068508</v>
       </c>
       <c r="C11">
-        <v>8.115497166571481</v>
+        <v>8.606798052833305</v>
       </c>
       <c r="D11">
-        <v>4.67286204341846</v>
+        <v>5.201023558556363</v>
       </c>
       <c r="E11">
-        <v>7.367413322334845</v>
+        <v>7.253140725555701</v>
       </c>
       <c r="F11">
-        <v>32.06806930452271</v>
+        <v>28.87342230579498</v>
       </c>
       <c r="G11">
-        <v>41.85328255187489</v>
+        <v>38.25586686597789</v>
       </c>
       <c r="I11">
-        <v>3.70604705462508</v>
+        <v>3.508312564672251</v>
       </c>
       <c r="J11">
-        <v>13.31467686221696</v>
+        <v>11.57539483901255</v>
       </c>
       <c r="K11">
-        <v>21.83974689238569</v>
+        <v>19.31164635406061</v>
       </c>
       <c r="L11">
-        <v>5.870716147699884</v>
+        <v>14.45677686786496</v>
       </c>
       <c r="M11">
-        <v>14.06206470338538</v>
+        <v>14.16617685031482</v>
       </c>
       <c r="N11">
-        <v>7.505587495547651</v>
+        <v>5.657571042484266</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.28557605525875</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.842843671847612</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.22198475356279</v>
+        <v>17.09127789672883</v>
       </c>
       <c r="C12">
-        <v>8.207514177093675</v>
+        <v>8.685079147723769</v>
       </c>
       <c r="D12">
-        <v>4.710989485543037</v>
+        <v>5.279681328711608</v>
       </c>
       <c r="E12">
-        <v>7.387121220899605</v>
+        <v>7.28351908534399</v>
       </c>
       <c r="F12">
-        <v>32.20329318385911</v>
+        <v>28.83049441052063</v>
       </c>
       <c r="G12">
-        <v>42.06033671611956</v>
+        <v>38.68116361409577</v>
       </c>
       <c r="I12">
-        <v>3.643359817439024</v>
+        <v>3.457598257687228</v>
       </c>
       <c r="J12">
-        <v>13.3309873860967</v>
+        <v>11.35809222208787</v>
       </c>
       <c r="K12">
-        <v>21.87201433520336</v>
+        <v>19.22993458734365</v>
       </c>
       <c r="L12">
-        <v>5.86541409751525</v>
+        <v>14.37330203086635</v>
       </c>
       <c r="M12">
-        <v>14.23494376807113</v>
+        <v>14.13822202766655</v>
       </c>
       <c r="N12">
-        <v>7.543652834114553</v>
+        <v>5.649410498743377</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.45104741600058</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.886216442286731</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.17615293963311</v>
+        <v>17.04528457463487</v>
       </c>
       <c r="C13">
-        <v>8.185088996629716</v>
+        <v>8.665797261606539</v>
       </c>
       <c r="D13">
-        <v>4.701658921021388</v>
+        <v>5.261404892347167</v>
       </c>
       <c r="E13">
-        <v>7.383132016395942</v>
+        <v>7.277093322563576</v>
       </c>
       <c r="F13">
-        <v>32.18124386480401</v>
+        <v>28.84729548728469</v>
       </c>
       <c r="G13">
-        <v>42.02792245541253</v>
+        <v>38.59765607003371</v>
       </c>
       <c r="I13">
-        <v>3.655296337184813</v>
+        <v>3.466670700152513</v>
       </c>
       <c r="J13">
-        <v>13.32988563001441</v>
+        <v>11.4083295522858</v>
       </c>
       <c r="K13">
-        <v>21.87050815899161</v>
+        <v>19.2528653134976</v>
       </c>
       <c r="L13">
-        <v>5.866890006613863</v>
+        <v>14.39514074328092</v>
       </c>
       <c r="M13">
-        <v>14.19728239539849</v>
+        <v>14.14838237146621</v>
       </c>
       <c r="N13">
-        <v>7.534590252255419</v>
+        <v>5.651454008552866</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.4150930976381</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.876082291291844</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.02981682578852</v>
+        <v>16.89187166783029</v>
       </c>
       <c r="C14">
-        <v>8.121952473665903</v>
+        <v>8.612207957736588</v>
       </c>
       <c r="D14">
-        <v>4.675520689431637</v>
+        <v>5.206917297242928</v>
       </c>
       <c r="E14">
-        <v>7.369142996508341</v>
+        <v>7.255686617141967</v>
       </c>
       <c r="F14">
-        <v>32.08220710460298</v>
+        <v>28.87314138449237</v>
       </c>
       <c r="G14">
-        <v>41.87550737170691</v>
+        <v>38.29422676503791</v>
       </c>
       <c r="I14">
-        <v>3.70022243998498</v>
+        <v>3.503349746077062</v>
       </c>
       <c r="J14">
-        <v>13.31704358245627</v>
+        <v>11.55905952645139</v>
       </c>
       <c r="K14">
-        <v>21.84471597085402</v>
+        <v>19.3072158808123</v>
       </c>
       <c r="L14">
-        <v>5.870421845649449</v>
+        <v>14.45157744059058</v>
       </c>
       <c r="M14">
-        <v>14.07610737646825</v>
+        <v>14.16564773685666</v>
       </c>
       <c r="N14">
-        <v>7.508349954642123</v>
+        <v>5.657021849830554</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.29905909323616</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.846073240173814</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.93917298850139</v>
+        <v>16.79597432328643</v>
       </c>
       <c r="C15">
-        <v>8.088446026447803</v>
+        <v>8.583904313031079</v>
       </c>
       <c r="D15">
-        <v>4.661732170934266</v>
+        <v>5.176469450809283</v>
       </c>
       <c r="E15">
-        <v>7.36008056972701</v>
+        <v>7.242461926760317</v>
       </c>
       <c r="F15">
-        <v>32.00758422645498</v>
+        <v>28.87287166386587</v>
       </c>
       <c r="G15">
-        <v>41.7580609090102</v>
+        <v>38.09528511539528</v>
       </c>
       <c r="I15">
-        <v>3.730898398176099</v>
+        <v>3.529575968008853</v>
       </c>
       <c r="J15">
-        <v>13.30444729983996</v>
+        <v>11.64269482802367</v>
       </c>
       <c r="K15">
-        <v>21.81821103575616</v>
+        <v>19.32925176794926</v>
       </c>
       <c r="L15">
-        <v>5.871930348476522</v>
+        <v>14.4779395341443</v>
       </c>
       <c r="M15">
-        <v>14.00259775083024</v>
+        <v>14.16759419270864</v>
       </c>
       <c r="N15">
-        <v>7.494009151415558</v>
+        <v>5.659853615601134</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.22840089913076</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.829277696401976</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.42083199841958</v>
+        <v>16.24881938561791</v>
       </c>
       <c r="C16">
-        <v>7.860755204274053</v>
+        <v>8.370250542282761</v>
       </c>
       <c r="D16">
-        <v>4.568132293958498</v>
+        <v>5.001445595504655</v>
       </c>
       <c r="E16">
-        <v>7.311970668704337</v>
+        <v>7.175152589779141</v>
       </c>
       <c r="F16">
-        <v>31.67215566598178</v>
+        <v>28.89983735260954</v>
       </c>
       <c r="G16">
-        <v>41.24182973294081</v>
+        <v>37.23073767103953</v>
       </c>
       <c r="I16">
-        <v>3.888788667832936</v>
+        <v>3.659584150240444</v>
       </c>
       <c r="J16">
-        <v>13.26436451244334</v>
+        <v>12.06449163142667</v>
       </c>
       <c r="K16">
-        <v>21.73707760393223</v>
+        <v>19.48236704782564</v>
       </c>
       <c r="L16">
-        <v>5.885000018072605</v>
+        <v>14.64939151492159</v>
       </c>
       <c r="M16">
-        <v>13.56694530421974</v>
+        <v>14.20254934755216</v>
       </c>
       <c r="N16">
-        <v>7.401915075632558</v>
+        <v>5.678937608436358</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.80596919921275</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.723697330832089</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.09553272669619</v>
+        <v>15.90693091429868</v>
       </c>
       <c r="C17">
-        <v>7.719073795429618</v>
+        <v>8.224270944241054</v>
       </c>
       <c r="D17">
-        <v>4.510378722916419</v>
+        <v>4.90525653079605</v>
       </c>
       <c r="E17">
-        <v>7.282904350194702</v>
+        <v>7.138502812779897</v>
       </c>
       <c r="F17">
-        <v>31.46893458651346</v>
+        <v>28.87161410707744</v>
       </c>
       <c r="G17">
-        <v>40.92813610550357</v>
+        <v>36.81522056785672</v>
       </c>
       <c r="I17">
-        <v>3.98696461882672</v>
+        <v>3.741669218315709</v>
       </c>
       <c r="J17">
-        <v>13.24112171520205</v>
+        <v>12.24523017201362</v>
       </c>
       <c r="K17">
-        <v>21.68917692152183</v>
+        <v>19.54933622248457</v>
       </c>
       <c r="L17">
-        <v>5.893195670147207</v>
+        <v>14.7346036795747</v>
       </c>
       <c r="M17">
-        <v>13.29338676482499</v>
+        <v>14.20603129256301</v>
       </c>
       <c r="N17">
-        <v>7.346085399862454</v>
+        <v>5.69014901347543</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.53728485392536</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.659442706822518</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.9096706609274</v>
+        <v>15.71195755486567</v>
       </c>
       <c r="C18">
-        <v>7.622592003608177</v>
+        <v>8.11964877392078</v>
       </c>
       <c r="D18">
-        <v>4.471078716085079</v>
+        <v>4.848429610825846</v>
       </c>
       <c r="E18">
-        <v>7.267701178230797</v>
+        <v>7.12026754250392</v>
       </c>
       <c r="F18">
-        <v>31.38972227684699</v>
+        <v>28.87260139657161</v>
       </c>
       <c r="G18">
-        <v>40.81211539313509</v>
+        <v>36.67325694557817</v>
       </c>
       <c r="I18">
-        <v>4.035977612587646</v>
+        <v>3.780372375511784</v>
       </c>
       <c r="J18">
-        <v>13.24063966911076</v>
+        <v>12.33029246338334</v>
       </c>
       <c r="K18">
-        <v>21.69013602062414</v>
+        <v>19.60225336878006</v>
       </c>
       <c r="L18">
-        <v>5.899684676845132</v>
+        <v>14.79459829044763</v>
       </c>
       <c r="M18">
-        <v>13.13055363026432</v>
+        <v>14.22003185338768</v>
       </c>
       <c r="N18">
-        <v>7.309816273491869</v>
+        <v>5.697824021477109</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.37624485403598</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.618620709550291</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.84325748816939</v>
+        <v>15.64248547349244</v>
       </c>
       <c r="C19">
-        <v>7.600761678233272</v>
+        <v>8.094873653176503</v>
       </c>
       <c r="D19">
-        <v>4.462350171092905</v>
+        <v>4.834159356646419</v>
       </c>
       <c r="E19">
-        <v>7.261542445029878</v>
+        <v>7.113425072080512</v>
       </c>
       <c r="F19">
-        <v>31.33475653408919</v>
+        <v>28.8446937549537</v>
       </c>
       <c r="G19">
-        <v>40.72425117472071</v>
+        <v>36.58782181500161</v>
       </c>
       <c r="I19">
-        <v>4.058730932574258</v>
+        <v>3.800812925978584</v>
       </c>
       <c r="J19">
-        <v>13.23099570262262</v>
+        <v>12.34545056230863</v>
       </c>
       <c r="K19">
-        <v>21.66910867537092</v>
+        <v>19.60009211532563</v>
       </c>
       <c r="L19">
-        <v>5.900574458801276</v>
+        <v>14.79951315016262</v>
       </c>
       <c r="M19">
-        <v>13.07745500182786</v>
+        <v>14.20982199209465</v>
       </c>
       <c r="N19">
-        <v>7.300976867070706</v>
+        <v>5.699309666182123</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.32339326340329</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.607982224466796</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.1307445668718</v>
+        <v>15.9438720984774</v>
       </c>
       <c r="C20">
-        <v>7.733125994363349</v>
+        <v>8.239215612904106</v>
       </c>
       <c r="D20">
-        <v>4.516074169630633</v>
+        <v>4.91464257514322</v>
       </c>
       <c r="E20">
-        <v>7.286087043637446</v>
+        <v>7.142329910503989</v>
       </c>
       <c r="F20">
-        <v>31.49334026530487</v>
+        <v>28.87886908362825</v>
       </c>
       <c r="G20">
-        <v>40.96635670262842</v>
+        <v>36.85973679756741</v>
       </c>
       <c r="I20">
-        <v>3.975831045770145</v>
+        <v>3.732091083152226</v>
       </c>
       <c r="J20">
-        <v>13.24451677732774</v>
+        <v>12.22991967832277</v>
       </c>
       <c r="K20">
-        <v>21.69638579978937</v>
+        <v>19.54507657762222</v>
       </c>
       <c r="L20">
-        <v>5.89245037715947</v>
+        <v>14.72771770248194</v>
       </c>
       <c r="M20">
-        <v>13.3225027857908</v>
+        <v>14.20772499942012</v>
       </c>
       <c r="N20">
-        <v>7.351658548469553</v>
+        <v>5.689083853051891</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.56602183418567</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.665942550982037</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.06826650723109</v>
+        <v>16.93707431100152</v>
       </c>
       <c r="C21">
-        <v>8.155499809020318</v>
+        <v>8.622554371046707</v>
       </c>
       <c r="D21">
-        <v>4.68955276219873</v>
+        <v>5.248851718474871</v>
       </c>
       <c r="E21">
-        <v>7.371753607219716</v>
+        <v>7.267442379489754</v>
       </c>
       <c r="F21">
-        <v>32.07122168661646</v>
+        <v>28.75172579301216</v>
       </c>
       <c r="G21">
-        <v>41.85147427291317</v>
+        <v>38.49640070045523</v>
       </c>
       <c r="I21">
-        <v>3.695806305110584</v>
+        <v>3.504767728358413</v>
       </c>
       <c r="J21">
-        <v>13.30709399512463</v>
+        <v>11.37418548951325</v>
       </c>
       <c r="K21">
-        <v>21.82150641864622</v>
+        <v>19.21925469419245</v>
       </c>
       <c r="L21">
-        <v>5.867487381997071</v>
+        <v>14.38235502063423</v>
       </c>
       <c r="M21">
-        <v>14.1150904809536</v>
+        <v>14.10405139198665</v>
       </c>
       <c r="N21">
-        <v>7.520814654102646</v>
+        <v>5.65279186473487</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.3309358238595</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.859341970033016</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.69223915367544</v>
+        <v>17.56439202815013</v>
       </c>
       <c r="C22">
-        <v>8.406071542403339</v>
+        <v>8.841119417992836</v>
       </c>
       <c r="D22">
-        <v>4.793671292273948</v>
+        <v>5.463526658458804</v>
       </c>
       <c r="E22">
-        <v>7.431078292124314</v>
+        <v>7.355741520026678</v>
       </c>
       <c r="F22">
-        <v>32.50798081231869</v>
+        <v>28.69221907738856</v>
       </c>
       <c r="G22">
-        <v>42.52682379573636</v>
+        <v>39.75422315071214</v>
       </c>
       <c r="I22">
-        <v>3.505735862838888</v>
+        <v>3.346812437516369</v>
       </c>
       <c r="J22">
-        <v>13.36991026224558</v>
+        <v>10.82434435159461</v>
       </c>
       <c r="K22">
-        <v>21.94860916638606</v>
+        <v>19.02415595078997</v>
       </c>
       <c r="L22">
-        <v>5.854158030741906</v>
+        <v>14.17249055622891</v>
       </c>
       <c r="M22">
-        <v>14.60842902285207</v>
+        <v>14.05792146432024</v>
       </c>
       <c r="N22">
-        <v>7.627421391022566</v>
+        <v>5.631130894093256</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.80519766553667</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.981401334773383</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.3645910517651</v>
+        <v>17.23412321835155</v>
       </c>
       <c r="C23">
-        <v>8.255054491778251</v>
+        <v>8.721339085051392</v>
       </c>
       <c r="D23">
-        <v>4.730625250271374</v>
+        <v>5.327663594030529</v>
       </c>
       <c r="E23">
-        <v>7.401080481663594</v>
+        <v>7.305001118992507</v>
       </c>
       <c r="F23">
-        <v>32.32220886660738</v>
+        <v>28.82327685559951</v>
       </c>
       <c r="G23">
-        <v>42.24804331228723</v>
+        <v>39.02480876642247</v>
       </c>
       <c r="I23">
-        <v>3.596454095477925</v>
+        <v>3.417404851859825</v>
       </c>
       <c r="J23">
-        <v>13.35245323006417</v>
+        <v>11.21617439745836</v>
       </c>
       <c r="K23">
-        <v>21.91721436946884</v>
+        <v>19.19288889254918</v>
       </c>
       <c r="L23">
-        <v>5.863502018917811</v>
+        <v>14.33102841586313</v>
       </c>
       <c r="M23">
-        <v>14.34305753625497</v>
+        <v>14.13287109997163</v>
       </c>
       <c r="N23">
-        <v>7.564621182065723</v>
+        <v>5.645257235400038</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.55405029745052</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.910853112853272</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.12306635005104</v>
+        <v>15.93550098560185</v>
       </c>
       <c r="C24">
-        <v>7.696977968520752</v>
+        <v>8.200949405365625</v>
       </c>
       <c r="D24">
-        <v>4.500976619818594</v>
+        <v>4.898726712507878</v>
       </c>
       <c r="E24">
-        <v>7.287497022007755</v>
+        <v>7.143173346852237</v>
       </c>
       <c r="F24">
-        <v>31.559745485275</v>
+        <v>28.94548509049402</v>
       </c>
       <c r="G24">
-        <v>41.0824437293354</v>
+        <v>36.96006023257042</v>
       </c>
       <c r="I24">
-        <v>3.964665478526187</v>
+        <v>3.717325495037045</v>
       </c>
       <c r="J24">
-        <v>13.26919536155419</v>
+        <v>12.25987840699194</v>
       </c>
       <c r="K24">
-        <v>21.75198298081371</v>
+        <v>19.59758064999199</v>
       </c>
       <c r="L24">
-        <v>5.896403490311845</v>
+        <v>14.76928901276403</v>
       </c>
       <c r="M24">
-        <v>13.30273614142959</v>
+        <v>14.24538459465761</v>
       </c>
       <c r="N24">
-        <v>7.339860917651231</v>
+        <v>5.692530436093079</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.54683893372225</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.654419687921806</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.69546424886598</v>
+        <v>14.4553057036428</v>
       </c>
       <c r="C25">
-        <v>7.062753261653391</v>
+        <v>7.425234176519917</v>
       </c>
       <c r="D25">
-        <v>4.247744081447167</v>
+        <v>4.586781094850305</v>
       </c>
       <c r="E25">
-        <v>7.171510040726463</v>
+        <v>7.029457835985463</v>
       </c>
       <c r="F25">
-        <v>30.7791119943279</v>
+        <v>28.48992158166326</v>
       </c>
       <c r="G25">
-        <v>39.87820172120225</v>
+        <v>36.22675990120806</v>
       </c>
       <c r="I25">
-        <v>4.378953640874247</v>
+        <v>4.072422365529656</v>
       </c>
       <c r="J25">
-        <v>13.19929345030186</v>
+        <v>12.29609830481074</v>
       </c>
       <c r="K25">
-        <v>21.60264591935715</v>
+        <v>19.68230673793559</v>
       </c>
       <c r="L25">
-        <v>5.934604052869222</v>
+        <v>14.96960289543756</v>
       </c>
       <c r="M25">
-        <v>12.09061120884763</v>
+        <v>14.14602678955015</v>
       </c>
       <c r="N25">
-        <v>7.106353765727789</v>
+        <v>5.73713482455986</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.32513011583973</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.385577866481715</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
